--- a/DocEsterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
+++ b/DocEsterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\Doc_esterna\PianoDiProgetto\Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\DocEsterna\PianoDiProgetto\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7AFF3-3942-495A-92E8-0C29535A4387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF0315-0895-45B0-B86B-2DBB712070AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="26">
   <si>
     <t>Baldisseri Michele</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Riepilogo rendicontato</t>
+  </si>
+  <si>
+    <t>Periodo I</t>
+  </si>
+  <si>
+    <t>Periodo II</t>
+  </si>
+  <si>
+    <t>Periodo III</t>
+  </si>
+  <si>
+    <t>totale</t>
   </si>
 </sst>
 </file>
@@ -5733,35 +5745,6 @@
                   <c:y val="-4.6153846153846247E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="0">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="ctr">
-                    <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="95000"/>
-                          <a:lumOff val="5000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -5770,17 +5753,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="wedgeRectCallout">
-                      <a:avLst/>
-                    </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                  </c15:spPr>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-E02C-4DA9-9ACF-77FDA80CF46D}"/>
                 </c:ext>
@@ -14921,19 +14894,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S153"/>
+  <dimension ref="A1:AP153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="Q124" sqref="Q124"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AG45" sqref="AG45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
@@ -14944,7 +14921,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -14973,7 +14950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -15010,7 +14987,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -15047,7 +15024,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15084,7 +15061,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15121,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -15158,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -15195,7 +15172,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -15233,7 +15210,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -15266,7 +15243,263 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <f>R14*30</f>
+        <v>120</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <f>AC14*30</f>
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK14">
+        <v>6</v>
+      </c>
+      <c r="AL14">
+        <f>AK14*30</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="Q15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>8</v>
+      </c>
+      <c r="S15">
+        <f>R15*20</f>
+        <v>160</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC15">
+        <v>12</v>
+      </c>
+      <c r="AD15">
+        <f>AC15*20</f>
+        <v>240</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK15">
+        <v>10</v>
+      </c>
+      <c r="AL15">
+        <f>AK15*20</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>19</v>
+      </c>
+      <c r="S16">
+        <f>R16*25</f>
+        <v>475</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC16">
+        <v>20</v>
+      </c>
+      <c r="AD16">
+        <f>AC16*25</f>
+        <v>500</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK16">
+        <v>4</v>
+      </c>
+      <c r="AL16">
+        <f>AK16*25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17">
+        <v>24</v>
+      </c>
+      <c r="S17">
+        <f>R17*22</f>
+        <v>528</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC17">
+        <v>24</v>
+      </c>
+      <c r="AD17">
+        <f>AC17*22</f>
+        <v>528</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK17">
+        <v>12</v>
+      </c>
+      <c r="AL17">
+        <f>AK17*22</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <f>R18*15</f>
+        <v>60</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18">
+        <v>14</v>
+      </c>
+      <c r="AD18">
+        <f>AC18*15</f>
+        <v>210</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18">
+        <v>16</v>
+      </c>
+      <c r="AL18">
+        <f>AK18*15</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19">
+        <v>27</v>
+      </c>
+      <c r="S19">
+        <f>R19*15</f>
+        <v>405</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19">
+        <v>9</v>
+      </c>
+      <c r="AD19">
+        <f>AC19*15</f>
+        <v>135</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK19">
+        <v>9</v>
+      </c>
+      <c r="AL19">
+        <f>AK19*15</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <f>SUM(R14:R19)</f>
+        <v>86</v>
+      </c>
+      <c r="S20">
+        <f>SUM(S14:S19)</f>
+        <v>1748</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <f>SUM(AC14:AC19)</f>
+        <v>81</v>
+      </c>
+      <c r="AD20">
+        <f>SUM(AD14:AD19)</f>
+        <v>1673</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK20">
+        <f>SUM(AK14:AK19)</f>
+        <v>57</v>
+      </c>
+      <c r="AL20">
+        <f>SUM(AL14:AL19)</f>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24">
+        <f>S20+AD20+AL20</f>
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -15276,8 +15509,35 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
+      <c r="R28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="AA28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AJ28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -15305,8 +15565,71 @@
       <c r="M29" t="s">
         <v>19</v>
       </c>
+      <c r="R29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" t="s">
+        <v>13</v>
+      </c>
+      <c r="X29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -15342,8 +15665,83 @@
         <f>L30*30</f>
         <v>360</v>
       </c>
+      <c r="Q30" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <f>SUM(R30:W30)</f>
+        <v>12</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>3</v>
+      </c>
+      <c r="AD30">
+        <v>5</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" ref="AG30:AG36" si="2">SUM(AA30:AF30)</f>
+        <v>12</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>3</v>
+      </c>
+      <c r="AL30">
+        <v>2</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" ref="AP30:AP36" si="3">SUM(AJ30:AO30)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -15366,7 +15764,7 @@
         <v>9</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H36" si="2">SUM(B31:G31)</f>
+        <f t="shared" ref="H31:H36" si="4">SUM(B31:G31)</f>
         <v>32</v>
       </c>
       <c r="K31" t="s">
@@ -15379,8 +15777,83 @@
         <f>L31*20</f>
         <v>600</v>
       </c>
+      <c r="Q31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ref="X31:X36" si="5">SUM(R31:W31)</f>
+        <v>12</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>5</v>
+      </c>
+      <c r="AF31">
+        <v>4</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>4</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>5</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -15403,7 +15876,7 @@
         <v>7</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K32" t="s">
@@ -15416,8 +15889,83 @@
         <f>L32*25</f>
         <v>1075</v>
       </c>
+      <c r="Q32" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>5</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>6</v>
+      </c>
+      <c r="AD32">
+        <v>2</v>
+      </c>
+      <c r="AE32">
+        <v>2</v>
+      </c>
+      <c r="AF32">
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>6</v>
+      </c>
+      <c r="AN32">
+        <v>4</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -15440,7 +15988,7 @@
         <v>10</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K33" t="s">
@@ -15453,8 +16001,83 @@
         <f>L33*22</f>
         <v>1320</v>
       </c>
+      <c r="Q33" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>2</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>4</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -15477,7 +16100,7 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K34" t="s">
@@ -15490,8 +16113,83 @@
         <f>L34*15</f>
         <v>510</v>
       </c>
+      <c r="Q34" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>5</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>5</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34">
+        <v>5</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>2</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>4</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -15514,7 +16212,7 @@
         <v>6</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K35" t="s">
@@ -15527,8 +16225,83 @@
         <f>L35*15</f>
         <v>675</v>
       </c>
+      <c r="Q35" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>3</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <v>6</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>6</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -15551,7 +16324,7 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -15565,8 +16338,83 @@
         <f>SUM(M30:M35)</f>
         <v>4540</v>
       </c>
+      <c r="Q36" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>4</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>5</v>
+      </c>
+      <c r="AD36">
+        <v>7</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ36">
+        <v>6</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -15575,28 +16423,121 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37" si="3">SUM(C30:C36)</f>
+        <f t="shared" ref="C37" si="6">SUM(C30:C36)</f>
         <v>30</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="4">SUM(D30:D36)</f>
+        <f t="shared" ref="D37" si="7">SUM(D30:D36)</f>
         <v>43</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="5">SUM(E30:E36)</f>
+        <f t="shared" ref="E37" si="8">SUM(E30:E36)</f>
         <v>60</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37" si="6">SUM(F30:F36)</f>
+        <f t="shared" ref="F37" si="9">SUM(F30:F36)</f>
         <v>34</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="7">SUM(G30:G36)</f>
+        <f t="shared" ref="G37" si="10">SUM(G30:G36)</f>
         <v>45</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37" si="8">SUM(H30:H36)</f>
+        <f t="shared" ref="H37" si="11">SUM(H30:H36)</f>
         <v>224</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37">
+        <f>SUM(R30:R36)</f>
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ref="S37:X37" si="12">SUM(S30:S36)</f>
+        <v>8</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ref="AA37:AG37" si="13">SUM(AA30:AA36)</f>
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" ref="AJ37:AP37" si="14">SUM(AJ30:AJ36)</f>
+        <v>6</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="14"/>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -15662,7 +16603,7 @@
         <v>13</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57:H63" si="9">SUM(B57:G57)</f>
+        <f t="shared" ref="H57:H63" si="15">SUM(B57:G57)</f>
         <v>50</v>
       </c>
       <c r="K57" t="s">
@@ -15699,7 +16640,7 @@
         <v>15</v>
       </c>
       <c r="H58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="K58" t="s">
@@ -15736,7 +16677,7 @@
         <v>10</v>
       </c>
       <c r="H59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="K59" t="s">
@@ -15773,7 +16714,7 @@
         <v>12</v>
       </c>
       <c r="H60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="K60" t="s">
@@ -15810,7 +16751,7 @@
         <v>10</v>
       </c>
       <c r="H61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="K61" t="s">
@@ -15847,7 +16788,7 @@
         <v>11</v>
       </c>
       <c r="H62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="K62" t="s">
@@ -15884,7 +16825,7 @@
         <v>10</v>
       </c>
       <c r="H63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -15908,27 +16849,27 @@
         <v>20</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64" si="10">SUM(C57:C63)</f>
+        <f t="shared" ref="C64" si="16">SUM(C57:C63)</f>
         <v>27</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64" si="11">SUM(D57:D63)</f>
+        <f t="shared" ref="D64" si="17">SUM(D57:D63)</f>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64" si="12">SUM(E57:E63)</f>
+        <f t="shared" ref="E64" si="18">SUM(E57:E63)</f>
         <v>75</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64" si="13">SUM(F57:F63)</f>
+        <f t="shared" ref="F64" si="19">SUM(F57:F63)</f>
         <v>147</v>
       </c>
       <c r="G64">
-        <f t="shared" ref="G64" si="14">SUM(G57:G63)</f>
+        <f t="shared" ref="G64" si="20">SUM(G57:G63)</f>
         <v>81</v>
       </c>
       <c r="H64">
-        <f t="shared" ref="H64" si="15">SUM(H57:H63)</f>
+        <f t="shared" ref="H64" si="21">SUM(H57:H63)</f>
         <v>350</v>
       </c>
     </row>
@@ -15995,7 +16936,7 @@
         <v>11</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82:H88" si="16">SUM(B82:G82)</f>
+        <f t="shared" ref="H82:H88" si="22">SUM(B82:G82)</f>
         <v>20</v>
       </c>
       <c r="K82" t="s">
@@ -16032,7 +16973,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="K83" t="s">
@@ -16069,7 +17010,7 @@
         <v>6</v>
       </c>
       <c r="H84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="K84" t="s">
@@ -16106,7 +17047,7 @@
         <v>5</v>
       </c>
       <c r="H85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="K85" t="s">
@@ -16143,7 +17084,7 @@
         <v>11</v>
       </c>
       <c r="H86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="K86" t="s">
@@ -16180,7 +17121,7 @@
         <v>12</v>
       </c>
       <c r="H87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="K87" t="s">
@@ -16217,7 +17158,7 @@
         <v>10</v>
       </c>
       <c r="H88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -16241,27 +17182,27 @@
         <v>20</v>
       </c>
       <c r="C89">
-        <f t="shared" ref="C89" si="17">SUM(C82:C88)</f>
+        <f t="shared" ref="C89" si="23">SUM(C82:C88)</f>
         <v>20</v>
       </c>
       <c r="D89">
-        <f t="shared" ref="D89" si="18">SUM(D82:D88)</f>
+        <f t="shared" ref="D89" si="24">SUM(D82:D88)</f>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" ref="E89" si="19">SUM(E82:E88)</f>
+        <f t="shared" ref="E89" si="25">SUM(E82:E88)</f>
         <v>15</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89" si="20">SUM(F82:F88)</f>
+        <f t="shared" ref="F89" si="26">SUM(F82:F88)</f>
         <v>30</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89" si="21">SUM(G82:G88)</f>
+        <f t="shared" ref="G89" si="27">SUM(G82:G88)</f>
         <v>55</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89" si="22">SUM(H82:H88)</f>
+        <f t="shared" ref="H89" si="28">SUM(H82:H88)</f>
         <v>140</v>
       </c>
     </row>
@@ -16314,27 +17255,27 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:H109" si="23">SUM(C3,C30,C57,C82)</f>
+        <f t="shared" ref="C109:H109" si="29">SUM(C3,C30,C57,C82)</f>
         <v>19</v>
       </c>
       <c r="D109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="E109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="F109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>28</v>
       </c>
       <c r="G109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>32</v>
       </c>
       <c r="H109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>132</v>
       </c>
       <c r="K109" t="s">
@@ -16354,38 +17295,38 @@
         <v>1</v>
       </c>
       <c r="B110">
-        <f t="shared" ref="B110:H116" si="24">SUM(B4,B31,B58,B83)</f>
+        <f t="shared" ref="B110:H116" si="30">SUM(B4,B31,B58,B83)</f>
         <v>12</v>
       </c>
       <c r="C110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="D110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="E110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="F110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="G110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="H110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="K110" t="s">
         <v>9</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110:L115" si="25">SUM(L4,L31,L58,L83)</f>
+        <f t="shared" ref="L110:L115" si="31">SUM(L4,L31,L58,L83)</f>
         <v>122</v>
       </c>
       <c r="M110">
@@ -16398,38 +17339,38 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="C111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="D111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="E111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="F111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>27</v>
       </c>
       <c r="G111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>37</v>
       </c>
       <c r="H111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="K111" t="s">
         <v>10</v>
       </c>
       <c r="L111">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>121</v>
       </c>
       <c r="M111">
@@ -16442,38 +17383,38 @@
         <v>5</v>
       </c>
       <c r="B112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="C112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="D112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="E112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="F112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>36</v>
       </c>
       <c r="G112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>33</v>
       </c>
       <c r="H112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="K112" t="s">
         <v>11</v>
       </c>
       <c r="L112">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>150</v>
       </c>
       <c r="M112">
@@ -16486,38 +17427,38 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="C113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="D113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
       <c r="E113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="F113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
       <c r="G113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>32</v>
       </c>
       <c r="H113">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="K113" t="s">
         <v>12</v>
       </c>
       <c r="L113">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>211</v>
       </c>
       <c r="M113">
@@ -16530,38 +17471,38 @@
         <v>2</v>
       </c>
       <c r="B114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="C114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="D114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="E114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="F114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>27</v>
       </c>
       <c r="G114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>37</v>
       </c>
       <c r="H114">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="K114" t="s">
         <v>13</v>
       </c>
       <c r="L114">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>243</v>
       </c>
       <c r="M114">
@@ -16574,38 +17515,38 @@
         <v>17</v>
       </c>
       <c r="B115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="C115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="D115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
       <c r="E115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="F115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>29</v>
       </c>
       <c r="G115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
       <c r="H115">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L115">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>924</v>
       </c>
       <c r="M115">
@@ -16618,31 +17559,31 @@
         <v>7</v>
       </c>
       <c r="B116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>77</v>
       </c>
       <c r="C116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>122</v>
       </c>
       <c r="D116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>121</v>
       </c>
       <c r="E116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>150</v>
       </c>
       <c r="F116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>211</v>
       </c>
       <c r="G116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>243</v>
       </c>
       <c r="H116">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>924</v>
       </c>
     </row>
@@ -16701,27 +17642,27 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:H137" si="26">SUM(C82,C57,C30)</f>
+        <f t="shared" ref="C137:H137" si="32">SUM(C82,C57,C30)</f>
         <v>19</v>
       </c>
       <c r="D137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="E137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="F137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28</v>
       </c>
       <c r="G137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>28</v>
       </c>
       <c r="H137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>102</v>
       </c>
       <c r="K137" t="s">
@@ -16741,38 +17682,38 @@
         <v>1</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:H144" si="27">SUM(B83,B58,B31)</f>
+        <f t="shared" ref="B138:H144" si="33">SUM(B83,B58,B31)</f>
         <v>12</v>
       </c>
       <c r="C138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="D138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="E138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="F138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>30</v>
       </c>
       <c r="G138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="H138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>102</v>
       </c>
       <c r="K138" t="s">
         <v>9</v>
       </c>
       <c r="L138">
-        <f t="shared" ref="L138:L143" si="28">SUM(L83,L58,L31)</f>
+        <f t="shared" ref="L138:L143" si="34">SUM(L83,L58,L31)</f>
         <v>77</v>
       </c>
       <c r="M138">
@@ -16785,38 +17726,38 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="C139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="D139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="E139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="F139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
       <c r="G139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="H139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>102</v>
       </c>
       <c r="K139" t="s">
         <v>10</v>
       </c>
       <c r="L139">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>43</v>
       </c>
       <c r="M139">
@@ -16829,38 +17770,38 @@
         <v>5</v>
       </c>
       <c r="B140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="C140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="D140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="E140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>22</v>
       </c>
       <c r="F140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>36</v>
       </c>
       <c r="G140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
       <c r="H140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>102</v>
       </c>
       <c r="K140" t="s">
         <v>11</v>
       </c>
       <c r="L140">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>150</v>
       </c>
       <c r="M140">
@@ -16873,38 +17814,38 @@
         <v>3</v>
       </c>
       <c r="B141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="C141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="D141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="E141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>22</v>
       </c>
       <c r="F141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>34</v>
       </c>
       <c r="G141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>26</v>
       </c>
       <c r="H141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>102</v>
       </c>
       <c r="K141" t="s">
         <v>12</v>
       </c>
       <c r="L141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>211</v>
       </c>
       <c r="M141">
@@ -16917,38 +17858,38 @@
         <v>2</v>
       </c>
       <c r="B142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="C142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>17</v>
       </c>
       <c r="D142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="F142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>27</v>
       </c>
       <c r="G142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>29</v>
       </c>
       <c r="H142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>102</v>
       </c>
       <c r="K142" t="s">
         <v>13</v>
       </c>
       <c r="L142">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>181</v>
       </c>
       <c r="M142">
@@ -16961,38 +17902,38 @@
         <v>17</v>
       </c>
       <c r="B143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="C143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="D143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="E143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>19</v>
       </c>
       <c r="F143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>29</v>
       </c>
       <c r="G143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="H143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>102</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L143">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>714</v>
       </c>
       <c r="M143">
@@ -17005,31 +17946,31 @@
         <v>7</v>
       </c>
       <c r="B144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>52</v>
       </c>
       <c r="C144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>77</v>
       </c>
       <c r="D144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>43</v>
       </c>
       <c r="E144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>150</v>
       </c>
       <c r="F144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>211</v>
       </c>
       <c r="G144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>181</v>
       </c>
       <c r="H144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>714</v>
       </c>
     </row>
@@ -17037,7 +17978,10 @@
       <c r="S153" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="R28:X28"/>
+    <mergeCell ref="AA28:AG28"/>
+    <mergeCell ref="AJ28:AP28"/>
     <mergeCell ref="B135:H135"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:H28"/>

--- a/DocEsterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
+++ b/DocEsterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\DocEsterna\PianoDiProgetto\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980D76EB-58FC-42B1-A0B7-798A76E0DCAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1945A6C-D092-4A7B-A5C4-97D303088366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="36">
   <si>
     <t>Baldisseri Michele</t>
   </si>
@@ -137,6 +137,12 @@
   <si>
     <t>Safdari Hossain</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,6 +199,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -8894,6 +8902,4233 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$R$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$R$30:$R$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FD5-4B51-974B-E510E1755634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$S$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$S$30:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FD5-4B51-974B-E510E1755634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$T$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$T$30:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FD5-4B51-974B-E510E1755634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$U$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$U$30:$U$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0FD5-4B51-974B-E510E1755634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$V$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$V$30:$V$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0FD5-4B51-974B-E510E1755634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$W$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$W$30:$W$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0FD5-4B51-974B-E510E1755634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1139453535"/>
+        <c:axId val="1139459775"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$X$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$X$30:$X$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0FD5-4B51-974B-E510E1755634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1139453535"/>
+        <c:axId val="1139459775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1139453535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139459775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1139459775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139453535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AA$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AA$30:$AA$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD3D-4DE6-8511-0C2C320EA6AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AB$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AB$30:$AB$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD3D-4DE6-8511-0C2C320EA6AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AC$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AC$30:$AC$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD3D-4DE6-8511-0C2C320EA6AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AD$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AD$30:$AD$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD3D-4DE6-8511-0C2C320EA6AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AE$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AE$30:$AE$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD3D-4DE6-8511-0C2C320EA6AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AF$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AF$30:$AF$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DD3D-4DE6-8511-0C2C320EA6AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1023361007"/>
+        <c:axId val="1023351439"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AG$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AG$30:$AG$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DD3D-4DE6-8511-0C2C320EA6AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1023361007"/>
+        <c:axId val="1023351439"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1023361007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023351439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023351439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023361007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AJ$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AI$30:$AI$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AJ$30:$AJ$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D0B-4959-B019-E1495DC47F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AK$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AI$30:$AI$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AK$30:$AK$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D0B-4959-B019-E1495DC47F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AL$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AI$30:$AI$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AL$30:$AL$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D0B-4959-B019-E1495DC47F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AM$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AI$30:$AI$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AM$30:$AM$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D0B-4959-B019-E1495DC47F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AN$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AI$30:$AI$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AN$30:$AN$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D0B-4959-B019-E1495DC47F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AO$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AI$30:$AI$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AO$30:$AO$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D0B-4959-B019-E1495DC47F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1139466847"/>
+        <c:axId val="1139467679"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AP$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AI$30:$AI$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AP$30:$AP$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7D0B-4959-B019-E1495DC47F57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1139466847"/>
+        <c:axId val="1139467679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1139466847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139467679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1139467679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1139466847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$R$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$82:$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$R$82:$R$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F957-4B80-AD2E-27D78FF3AAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$S$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$82:$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$S$82:$S$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F957-4B80-AD2E-27D78FF3AAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$T$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$82:$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$T$82:$T$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F957-4B80-AD2E-27D78FF3AAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$U$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$82:$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$U$82:$U$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F957-4B80-AD2E-27D78FF3AAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$V$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$82:$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$V$82:$V$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F957-4B80-AD2E-27D78FF3AAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$W$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$82:$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$W$82:$W$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F957-4B80-AD2E-27D78FF3AAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1016312959"/>
+        <c:axId val="1016320863"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$X$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$Q$82:$Q$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$X$82:$X$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F957-4B80-AD2E-27D78FF3AAD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1016312959"/>
+        <c:axId val="1016320863"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1016312959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016320863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1016320863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016312959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AF$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$82:$AE$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AF$82:$AF$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8C2-453D-9468-467DF5297F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AG$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$82:$AE$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AG$82:$AG$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8C2-453D-9468-467DF5297F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AH$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$82:$AE$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AH$82:$AH$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F8C2-453D-9468-467DF5297F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AI$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$82:$AE$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AI$82:$AI$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F8C2-453D-9468-467DF5297F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AJ$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$82:$AE$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AJ$82:$AJ$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F8C2-453D-9468-467DF5297F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AK$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$82:$AE$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AK$82:$AK$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F8C2-453D-9468-467DF5297F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1023365999"/>
+        <c:axId val="1023364751"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AL$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$82:$AE$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AL$82:$AL$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F8C2-453D-9468-467DF5297F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1023365999"/>
+        <c:axId val="1023364751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1023365999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023364751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1023364751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1023365999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -13469,6 +17704,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19791,6 +24226,2521 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -23887,15 +30837,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24100,6 +31050,186 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Grafico 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E684AC18-53F0-4A5D-90D7-572716480955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Grafico 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B6B105-293B-405C-933F-D1EFF718ED04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Grafico 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0DCD60-28BE-4B9C-96CA-000DCBC6C6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Grafico 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826452FC-791C-4928-B692-B8844D8C395F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Grafico 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1E387F-C2FA-4C3B-9815-6C04E924111C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24368,8 +31498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DI153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N61" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AA61" sqref="AA61"/>
+    <sheetView tabSelected="1" topLeftCell="Z81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN98" sqref="AN98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25738,7 +32868,7 @@
       <c r="AD35">
         <v>3</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="5">
         <v>6</v>
       </c>
       <c r="AF35">
@@ -27795,7 +34925,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>14</v>
       </c>
@@ -27805,8 +34935,26 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
+      <c r="R80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="AF80" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+      <c r="AL80" s="4"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>8</v>
       </c>
@@ -27834,8 +34982,62 @@
       <c r="M81" t="s">
         <v>19</v>
       </c>
+      <c r="R81" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" t="s">
+        <v>9</v>
+      </c>
+      <c r="T81" t="s">
+        <v>10</v>
+      </c>
+      <c r="U81" t="s">
+        <v>11</v>
+      </c>
+      <c r="V81" t="s">
+        <v>12</v>
+      </c>
+      <c r="W81" t="s">
+        <v>13</v>
+      </c>
+      <c r="X81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -27871,8 +35073,71 @@
         <f>L82*30</f>
         <v>600</v>
       </c>
+      <c r="Q82" t="s">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>5</v>
+      </c>
+      <c r="X82">
+        <f t="shared" ref="X82:X88" si="30">SUM(R82:W82)</f>
+        <v>8</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB82">
+        <f>SUM(R82:R88)</f>
+        <v>11</v>
+      </c>
+      <c r="AC82">
+        <f>AB82*30</f>
+        <v>330</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>2</v>
+      </c>
+      <c r="AJ82">
+        <v>4</v>
+      </c>
+      <c r="AK82">
+        <v>6</v>
+      </c>
+      <c r="AL82">
+        <f t="shared" ref="AL82:AL88" si="31">SUM(AF82:AK82)</f>
+        <v>12</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP82">
+        <f>SUM(AF82:AF88)</f>
+        <v>9</v>
+      </c>
+      <c r="AQ82">
+        <f>AP82*30</f>
+        <v>270</v>
+      </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -27908,8 +35173,68 @@
         <f>L83*20</f>
         <v>400</v>
       </c>
+      <c r="Q83" t="s">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB83">
+        <f>SUM(S82:S88)</f>
+        <v>9</v>
+      </c>
+      <c r="AC83">
+        <f>AB83*20</f>
+        <v>180</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF83">
+        <v>3</v>
+      </c>
+      <c r="AI83">
+        <v>3</v>
+      </c>
+      <c r="AJ83">
+        <v>4</v>
+      </c>
+      <c r="AL83">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP83">
+        <f>SUM(AG82:AG88)</f>
+        <v>11</v>
+      </c>
+      <c r="AQ83">
+        <f>AP83*20</f>
+        <v>220</v>
+      </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -27945,8 +35270,68 @@
         <f>L84*25</f>
         <v>0</v>
       </c>
+      <c r="Q84" t="s">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>6</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>2</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB84">
+        <f>SUM(T82:T88)</f>
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <f>AB84*25</f>
+        <v>0</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF84">
+        <v>4</v>
+      </c>
+      <c r="AG84">
+        <v>4</v>
+      </c>
+      <c r="AK84">
+        <v>4</v>
+      </c>
+      <c r="AL84">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP84">
+        <f>SUM(AH82:AH88)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <f>AP84*25</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -27982,8 +35367,68 @@
         <f>L85*22</f>
         <v>330</v>
       </c>
+      <c r="Q85" t="s">
+        <v>5</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>5</v>
+      </c>
+      <c r="V85">
+        <v>5</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB85">
+        <f>SUM(U82:U88)</f>
+        <v>12</v>
+      </c>
+      <c r="AC85">
+        <f>AB85*22</f>
+        <v>264</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG85">
+        <v>3</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>5</v>
+      </c>
+      <c r="AL85">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP85">
+        <f>SUM(AI82:AI88)</f>
+        <v>3</v>
+      </c>
+      <c r="AQ85">
+        <f>AP85*22</f>
+        <v>66</v>
+      </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -28019,8 +35464,68 @@
         <f>L86*15</f>
         <v>450</v>
       </c>
+      <c r="Q86" t="s">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>4</v>
+      </c>
+      <c r="W86">
+        <v>5</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB86">
+        <f>SUM(V82:V88)</f>
+        <v>13</v>
+      </c>
+      <c r="AC86">
+        <f>AB86*15</f>
+        <v>195</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ86">
+        <v>5</v>
+      </c>
+      <c r="AK86">
+        <v>6</v>
+      </c>
+      <c r="AL86">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP86">
+        <f>SUM(AJ82:AJ88)</f>
+        <v>17</v>
+      </c>
+      <c r="AQ86">
+        <f>AP86*15</f>
+        <v>255</v>
+      </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -28056,8 +35561,68 @@
         <f>L87*15</f>
         <v>825</v>
       </c>
+      <c r="Q87" t="s">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>4</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>4</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB87">
+        <f>SUM(W82:W88)</f>
+        <v>20</v>
+      </c>
+      <c r="AC87">
+        <f>AB87*15</f>
+        <v>300</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>8</v>
+      </c>
+      <c r="AL87">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP87">
+        <f>SUM(AK82:AK88)</f>
+        <v>35</v>
+      </c>
+      <c r="AQ87">
+        <f>AP87*15</f>
+        <v>525</v>
+      </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -28094,8 +35659,71 @@
         <f>SUM(M82:M87)</f>
         <v>2605</v>
       </c>
+      <c r="Q88" t="s">
+        <v>17</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>4</v>
+      </c>
+      <c r="W88">
+        <v>4</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
+      <c r="AA88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB88">
+        <f>SUM(AB82:AB87)</f>
+        <v>65</v>
+      </c>
+      <c r="AC88">
+        <f>SUM(AC82:AC87)</f>
+        <v>1269</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>6</v>
+      </c>
+      <c r="AL88">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="AO88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP88">
+        <f>SUM(AP82:AP87)</f>
+        <v>75</v>
+      </c>
+      <c r="AQ88">
+        <f>SUM(AQ82:AQ87)</f>
+        <v>1336</v>
+      </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -28104,31 +35732,193 @@
         <v>20</v>
       </c>
       <c r="C89">
-        <f t="shared" ref="C89" si="30">SUM(C82:C88)</f>
+        <f t="shared" ref="C89" si="32">SUM(C82:C88)</f>
         <v>20</v>
       </c>
       <c r="D89">
-        <f t="shared" ref="D89" si="31">SUM(D82:D88)</f>
+        <f t="shared" ref="D89" si="33">SUM(D82:D88)</f>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" ref="E89" si="32">SUM(E82:E88)</f>
+        <f t="shared" ref="E89" si="34">SUM(E82:E88)</f>
         <v>15</v>
       </c>
       <c r="F89">
-        <f t="shared" ref="F89" si="33">SUM(F82:F88)</f>
+        <f t="shared" ref="F89" si="35">SUM(F82:F88)</f>
         <v>30</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89" si="34">SUM(G82:G88)</f>
+        <f t="shared" ref="G89" si="36">SUM(G82:G88)</f>
         <v>55</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89" si="35">SUM(H82:H88)</f>
+        <f t="shared" ref="H89" si="37">SUM(H82:H88)</f>
         <v>140</v>
       </c>
+      <c r="Q89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R89">
+        <f>SUM(R82:R88)</f>
+        <v>11</v>
+      </c>
+      <c r="S89">
+        <f t="shared" ref="S89:X89" si="38">SUM(S82:S88)</f>
+        <v>9</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="38"/>
+        <v>13</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="38"/>
+        <v>20</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="38"/>
+        <v>65</v>
+      </c>
+      <c r="AE89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF89">
+        <f>SUM(AF82:AF88)</f>
+        <v>9</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" ref="AG89:AL89" si="39">SUM(AG82:AG88)</f>
+        <v>11</v>
+      </c>
+      <c r="AH89">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="AJ89">
+        <f t="shared" si="39"/>
+        <v>17</v>
+      </c>
+      <c r="AK89">
+        <f t="shared" si="39"/>
+        <v>35</v>
+      </c>
+      <c r="AL89">
+        <f t="shared" si="39"/>
+        <v>75</v>
+      </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="Q91" s="6"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="Q92" s="6"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+    </row>
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+    </row>
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
         <v>20</v>
       </c>
@@ -28139,7 +35929,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>8</v>
       </c>
@@ -28168,7 +35958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -28177,27 +35967,27 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:H109" si="36">SUM(C3,C30,C57,C82)</f>
+        <f t="shared" ref="C109:H109" si="40">SUM(C3,C30,C57,C82)</f>
         <v>19</v>
       </c>
       <c r="D109">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>19</v>
       </c>
       <c r="E109">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>20</v>
       </c>
       <c r="F109">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>28</v>
       </c>
       <c r="G109">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>32</v>
       </c>
       <c r="H109">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>132</v>
       </c>
       <c r="K109" t="s">
@@ -28212,43 +36002,43 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1</v>
       </c>
       <c r="B110">
-        <f t="shared" ref="B110:H116" si="37">SUM(B4,B31,B58,B83)</f>
+        <f t="shared" ref="B110:H116" si="41">SUM(B4,B31,B58,B83)</f>
         <v>12</v>
       </c>
       <c r="C110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>22</v>
       </c>
       <c r="D110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="E110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>23</v>
       </c>
       <c r="F110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="G110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>38</v>
       </c>
       <c r="H110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>132</v>
       </c>
       <c r="K110" t="s">
         <v>9</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110:L115" si="38">SUM(L4,L31,L58,L83)</f>
+        <f t="shared" ref="L110:L115" si="42">SUM(L4,L31,L58,L83)</f>
         <v>122</v>
       </c>
       <c r="M110">
@@ -28256,43 +36046,43 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
       <c r="B111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="C111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>16</v>
       </c>
       <c r="D111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="E111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>23</v>
       </c>
       <c r="F111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>27</v>
       </c>
       <c r="G111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>37</v>
       </c>
       <c r="H111">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>132</v>
       </c>
       <c r="K111" t="s">
         <v>10</v>
       </c>
       <c r="L111">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>121</v>
       </c>
       <c r="M111">
@@ -28300,43 +36090,43 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
       <c r="B112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="C112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="D112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>22</v>
       </c>
       <c r="E112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>22</v>
       </c>
       <c r="F112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>36</v>
       </c>
       <c r="G112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>33</v>
       </c>
       <c r="H112">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>132</v>
       </c>
       <c r="K112" t="s">
         <v>11</v>
       </c>
       <c r="L112">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>150</v>
       </c>
       <c r="M112">
@@ -28349,38 +36139,38 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>11</v>
       </c>
       <c r="C113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="D113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18</v>
       </c>
       <c r="E113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>22</v>
       </c>
       <c r="F113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>34</v>
       </c>
       <c r="G113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>32</v>
       </c>
       <c r="H113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>132</v>
       </c>
       <c r="K113" t="s">
         <v>12</v>
       </c>
       <c r="L113">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>211</v>
       </c>
       <c r="M113">
@@ -28393,38 +36183,38 @@
         <v>2</v>
       </c>
       <c r="B114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
       <c r="C114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>17</v>
       </c>
       <c r="D114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>22</v>
       </c>
       <c r="E114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>21</v>
       </c>
       <c r="F114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>27</v>
       </c>
       <c r="G114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>37</v>
       </c>
       <c r="H114">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>132</v>
       </c>
       <c r="K114" t="s">
         <v>13</v>
       </c>
       <c r="L114">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>243</v>
       </c>
       <c r="M114">
@@ -28437,38 +36227,38 @@
         <v>17</v>
       </c>
       <c r="B115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="C115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
       <c r="D115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18</v>
       </c>
       <c r="E115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>19</v>
       </c>
       <c r="F115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>29</v>
       </c>
       <c r="G115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>34</v>
       </c>
       <c r="H115">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>132</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L115">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>924</v>
       </c>
       <c r="M115">
@@ -28481,31 +36271,31 @@
         <v>7</v>
       </c>
       <c r="B116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>77</v>
       </c>
       <c r="C116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>122</v>
       </c>
       <c r="D116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>121</v>
       </c>
       <c r="E116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>150</v>
       </c>
       <c r="F116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>211</v>
       </c>
       <c r="G116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>243</v>
       </c>
       <c r="H116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>924</v>
       </c>
     </row>
@@ -28564,27 +36354,27 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:H137" si="39">SUM(C82,C57,C30)</f>
+        <f t="shared" ref="C137:H137" si="43">SUM(C82,C57,C30)</f>
         <v>19</v>
       </c>
       <c r="D137">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7</v>
       </c>
       <c r="E137">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="F137">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>28</v>
       </c>
       <c r="G137">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>28</v>
       </c>
       <c r="H137">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>102</v>
       </c>
       <c r="K137" t="s">
@@ -28604,38 +36394,38 @@
         <v>1</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:H144" si="40">SUM(B83,B58,B31)</f>
+        <f t="shared" ref="B138:H144" si="44">SUM(B83,B58,B31)</f>
         <v>12</v>
       </c>
       <c r="C138">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="D138">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="E138">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>23</v>
       </c>
       <c r="F138">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>30</v>
       </c>
       <c r="G138">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="H138">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>102</v>
       </c>
       <c r="K138" t="s">
         <v>9</v>
       </c>
       <c r="L138">
-        <f t="shared" ref="L138:L143" si="41">SUM(L83,L58,L31)</f>
+        <f t="shared" ref="L138:L143" si="45">SUM(L83,L58,L31)</f>
         <v>77</v>
       </c>
       <c r="M138">
@@ -28648,38 +36438,38 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>14</v>
       </c>
       <c r="C139">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="D139">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
       <c r="E139">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>23</v>
       </c>
       <c r="F139">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>27</v>
       </c>
       <c r="G139">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>23</v>
       </c>
       <c r="H139">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>102</v>
       </c>
       <c r="K139" t="s">
         <v>10</v>
       </c>
       <c r="L139">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>43</v>
       </c>
       <c r="M139">
@@ -28692,38 +36482,38 @@
         <v>5</v>
       </c>
       <c r="B140">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="C140">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="D140">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="E140">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>22</v>
       </c>
       <c r="F140">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>36</v>
       </c>
       <c r="G140">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>27</v>
       </c>
       <c r="H140">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>102</v>
       </c>
       <c r="K140" t="s">
         <v>11</v>
       </c>
       <c r="L140">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>150</v>
       </c>
       <c r="M140">
@@ -28736,38 +36526,38 @@
         <v>3</v>
       </c>
       <c r="B141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="C141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>15</v>
       </c>
       <c r="D141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="E141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>22</v>
       </c>
       <c r="F141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>34</v>
       </c>
       <c r="G141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>26</v>
       </c>
       <c r="H141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>102</v>
       </c>
       <c r="K141" t="s">
         <v>12</v>
       </c>
       <c r="L141">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>211</v>
       </c>
       <c r="M141">
@@ -28780,38 +36570,38 @@
         <v>2</v>
       </c>
       <c r="B142">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="C142">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>17</v>
       </c>
       <c r="D142">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>21</v>
       </c>
       <c r="F142">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>27</v>
       </c>
       <c r="G142">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>29</v>
       </c>
       <c r="H142">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>102</v>
       </c>
       <c r="K142" t="s">
         <v>13</v>
       </c>
       <c r="L142">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>181</v>
       </c>
       <c r="M142">
@@ -28824,38 +36614,38 @@
         <v>17</v>
       </c>
       <c r="B143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>12</v>
       </c>
       <c r="C143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="D143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="E143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>19</v>
       </c>
       <c r="F143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>29</v>
       </c>
       <c r="G143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="H143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>102</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>714</v>
       </c>
       <c r="M143">
@@ -28868,31 +36658,31 @@
         <v>7</v>
       </c>
       <c r="B144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>52</v>
       </c>
       <c r="C144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>77</v>
       </c>
       <c r="D144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>43</v>
       </c>
       <c r="E144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>150</v>
       </c>
       <c r="F144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>211</v>
       </c>
       <c r="G144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>181</v>
       </c>
       <c r="H144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>714</v>
       </c>
     </row>
@@ -28900,7 +36690,12 @@
       <c r="S153" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="AT55:AZ55"/>
+    <mergeCell ref="BH55:BN55"/>
+    <mergeCell ref="BV55:CB55"/>
+    <mergeCell ref="CJ55:CP55"/>
+    <mergeCell ref="CX55:DD55"/>
     <mergeCell ref="R28:X28"/>
     <mergeCell ref="AA28:AG28"/>
     <mergeCell ref="AJ28:AP28"/>
@@ -28912,11 +36707,8 @@
     <mergeCell ref="B107:H107"/>
     <mergeCell ref="R55:X55"/>
     <mergeCell ref="AF55:AL55"/>
-    <mergeCell ref="AT55:AZ55"/>
-    <mergeCell ref="BH55:BN55"/>
-    <mergeCell ref="BV55:CB55"/>
-    <mergeCell ref="CJ55:CP55"/>
-    <mergeCell ref="CX55:DD55"/>
+    <mergeCell ref="R80:X80"/>
+    <mergeCell ref="AF80:AL80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DocEsterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
+++ b/DocEsterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\DocEsterna\PianoDiProgetto\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1945A6C-D092-4A7B-A5C4-97D303088366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C4641C-9C53-4CEF-9E5F-3248754F79E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="35">
   <si>
     <t>Baldisseri Michele</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>totale</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>II</t>
@@ -196,11 +193,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2727,6 +2724,9 @@
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2796,6 +2796,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3020,7 +3023,13 @@
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3091,23 +3100,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3198,25 +3210,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3504,8 +3516,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3577,6 +3592,12 @@
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3721,13 +3742,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3797,14 +3821,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3874,8 +3910,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,25 +4014,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31498,8 +31546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DI153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN98" sqref="AN98"/>
+    <sheetView tabSelected="1" topLeftCell="Q51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W57" sqref="W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31514,15 +31562,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -32103,42 +32151,42 @@
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="R28" s="4" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="R28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="AA28" s="4" t="s">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="AA28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AJ28" s="4" t="s">
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AJ28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -32868,7 +32916,7 @@
       <c r="AD35">
         <v>3</v>
       </c>
-      <c r="AE35" s="5">
+      <c r="AE35" s="4">
         <v>6</v>
       </c>
       <c r="AF35">
@@ -33143,7 +33191,23 @@
         <v>57</v>
       </c>
     </row>
+    <row r="41" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+    </row>
     <row r="42" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
       <c r="CG42" s="3"/>
       <c r="CH42" s="3"/>
       <c r="CI42" s="3"/>
@@ -33153,78 +33217,78 @@
       <c r="CM42" s="3"/>
     </row>
     <row r="55" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="R55" s="4" t="s">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="R55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="AF55" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="AF55" s="4" t="s">
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AT55" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="4"/>
-      <c r="AT55" s="4" t="s">
+      <c r="AU55" s="6"/>
+      <c r="AV55" s="6"/>
+      <c r="AW55" s="6"/>
+      <c r="AX55" s="6"/>
+      <c r="AY55" s="6"/>
+      <c r="AZ55" s="6"/>
+      <c r="BH55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AU55" s="4"/>
-      <c r="AV55" s="4"/>
-      <c r="AW55" s="4"/>
-      <c r="AX55" s="4"/>
-      <c r="AY55" s="4"/>
-      <c r="AZ55" s="4"/>
-      <c r="BH55" s="4" t="s">
+      <c r="BI55" s="6"/>
+      <c r="BJ55" s="6"/>
+      <c r="BK55" s="6"/>
+      <c r="BL55" s="6"/>
+      <c r="BM55" s="6"/>
+      <c r="BN55" s="6"/>
+      <c r="BV55" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BI55" s="4"/>
-      <c r="BJ55" s="4"/>
-      <c r="BK55" s="4"/>
-      <c r="BL55" s="4"/>
-      <c r="BM55" s="4"/>
-      <c r="BN55" s="4"/>
-      <c r="BV55" s="4" t="s">
+      <c r="BW55" s="6"/>
+      <c r="BX55" s="6"/>
+      <c r="BY55" s="6"/>
+      <c r="BZ55" s="6"/>
+      <c r="CA55" s="6"/>
+      <c r="CB55" s="6"/>
+      <c r="CJ55" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BW55" s="4"/>
-      <c r="BX55" s="4"/>
-      <c r="BY55" s="4"/>
-      <c r="BZ55" s="4"/>
-      <c r="CA55" s="4"/>
-      <c r="CB55" s="4"/>
-      <c r="CJ55" s="4" t="s">
+      <c r="CK55" s="6"/>
+      <c r="CL55" s="6"/>
+      <c r="CM55" s="6"/>
+      <c r="CN55" s="6"/>
+      <c r="CO55" s="6"/>
+      <c r="CP55" s="6"/>
+      <c r="CX55" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="CK55" s="4"/>
-      <c r="CL55" s="4"/>
-      <c r="CM55" s="4"/>
-      <c r="CN55" s="4"/>
-      <c r="CO55" s="4"/>
-      <c r="CP55" s="4"/>
-      <c r="CX55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="CY55" s="4"/>
-      <c r="CZ55" s="4"/>
-      <c r="DA55" s="4"/>
-      <c r="DB55" s="4"/>
-      <c r="DC55" s="4"/>
-      <c r="DD55" s="4"/>
+      <c r="CY55" s="6"/>
+      <c r="CZ55" s="6"/>
+      <c r="DA55" s="6"/>
+      <c r="DB55" s="6"/>
+      <c r="DC55" s="6"/>
+      <c r="DD55" s="6"/>
     </row>
     <row r="56" spans="1:113" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -33489,20 +33553,24 @@
       <c r="U57">
         <v>2</v>
       </c>
+      <c r="W57">
+        <v>6</v>
+      </c>
       <c r="X57">
         <f t="shared" ref="X57:X63" si="16">SUM(R57:W57)</f>
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Z57" s="2"/>
       <c r="AA57" t="s">
         <v>8</v>
       </c>
       <c r="AB57">
         <f>SUM(R57:R63)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC57">
         <f>AB57*30</f>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AE57" t="s">
         <v>0</v>
@@ -33513,20 +33581,26 @@
       <c r="AI57">
         <v>4</v>
       </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>4</v>
+      </c>
       <c r="AL57">
         <f t="shared" ref="AL57:AL63" si="17">SUM(AF57:AK57)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AO57" t="s">
         <v>8</v>
       </c>
       <c r="AP57">
         <f>SUM(AF57:AF63)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ57">
         <f>AP57*30</f>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AS57" t="s">
         <v>0</v>
@@ -33686,22 +33760,22 @@
         <v>2</v>
       </c>
       <c r="W58">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X58">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AA58" t="s">
         <v>9</v>
       </c>
       <c r="AB58">
         <f>SUM(S57:S63)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC58">
         <f>AB58*20</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AE58" t="s">
         <v>1</v>
@@ -33710,22 +33784,25 @@
         <v>5</v>
       </c>
       <c r="AJ58">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="AK58">
+        <v>4</v>
       </c>
       <c r="AL58">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AO58" t="s">
         <v>9</v>
       </c>
       <c r="AP58">
         <f>SUM(AG57:AG63)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ58">
         <f>AP58*20</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AS58" t="s">
         <v>1</v>
@@ -33890,12 +33967,15 @@
       <c r="U59">
         <v>3</v>
       </c>
+      <c r="V59">
+        <v>4</v>
+      </c>
       <c r="W59">
         <v>2</v>
       </c>
       <c r="X59">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA59" t="s">
         <v>10</v>
@@ -33912,14 +33992,17 @@
         <v>4</v>
       </c>
       <c r="AI59">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AJ59">
+        <v>7</v>
       </c>
       <c r="AK59">
         <v>3</v>
       </c>
       <c r="AL59">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AO59" t="s">
         <v>10</v>
@@ -34090,17 +34173,17 @@
         <v>1650</v>
       </c>
       <c r="Q60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U60">
         <v>1</v>
       </c>
       <c r="W60">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X60">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA60" t="s">
         <v>11</v>
@@ -34114,28 +34197,34 @@
         <v>220</v>
       </c>
       <c r="AE60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI60">
         <v>6</v>
       </c>
+      <c r="AJ60">
+        <v>8</v>
+      </c>
+      <c r="AK60">
+        <v>2</v>
+      </c>
       <c r="AL60">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AO60" t="s">
         <v>11</v>
       </c>
       <c r="AP60">
         <f>SUM(AI57:AI63)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AQ60">
         <f>AP60*22</f>
-        <v>484</v>
+        <v>594</v>
       </c>
       <c r="AS60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -34162,7 +34251,7 @@
         <v>506</v>
       </c>
       <c r="BG60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BH60">
         <v>2</v>
@@ -34189,7 +34278,7 @@
         <v>242</v>
       </c>
       <c r="BU60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BV60">
         <v>2</v>
@@ -34216,7 +34305,7 @@
         <v>88</v>
       </c>
       <c r="CI60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CN60">
         <v>6</v>
@@ -34240,7 +34329,7 @@
         <v>110</v>
       </c>
       <c r="CW60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="DB60">
         <v>2</v>
@@ -34307,46 +34396,55 @@
         <v>1</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W61">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X61">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AA61" t="s">
         <v>12</v>
       </c>
       <c r="AB61">
         <f>SUM(V57:V63)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AC61">
         <f>AB61*15</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AE61" t="s">
         <v>3</v>
       </c>
+      <c r="AG61">
+        <v>2</v>
+      </c>
       <c r="AI61">
         <v>5</v>
       </c>
+      <c r="AJ61">
+        <v>5</v>
+      </c>
+      <c r="AK61">
+        <v>2</v>
+      </c>
       <c r="AL61">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AO61" t="s">
         <v>12</v>
       </c>
       <c r="AP61">
         <f>SUM(AJ57:AJ63)</f>
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AQ61">
         <f>AP61*15</f>
-        <v>195</v>
+        <v>765</v>
       </c>
       <c r="AS61" t="s">
         <v>3</v>
@@ -34511,44 +34609,56 @@
       <c r="R62">
         <v>2</v>
       </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="V62">
+        <v>2</v>
+      </c>
       <c r="W62">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X62">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AA62" t="s">
         <v>13</v>
       </c>
       <c r="AB62">
         <f>SUM(W57:W63)</f>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="AC62">
         <f>AB62*15</f>
-        <v>210</v>
+        <v>675</v>
       </c>
       <c r="AE62" t="s">
         <v>2</v>
       </c>
+      <c r="AF62">
+        <v>2</v>
+      </c>
+      <c r="AI62">
+        <v>2</v>
+      </c>
       <c r="AJ62">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL62">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AO62" t="s">
         <v>13</v>
       </c>
       <c r="AP62">
         <f>SUM(AK57:AK63)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AQ62">
         <f>AP62*15</f>
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AS62" t="s">
         <v>2</v>
@@ -34720,50 +34830,56 @@
       <c r="Q63" t="s">
         <v>17</v>
       </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
       <c r="U63">
         <v>3</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X63">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AB63">
         <f>SUM(AB57:AB62)</f>
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="AC63">
         <f>SUM(AC57:AC62)</f>
-        <v>590</v>
+        <v>1305</v>
       </c>
       <c r="AE63" t="s">
         <v>17</v>
       </c>
       <c r="AF63">
+        <v>2</v>
+      </c>
+      <c r="AG63">
         <v>1</v>
       </c>
       <c r="AJ63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL63">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AO63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AP63">
         <f>SUM(AP57:AP62)</f>
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AQ63">
         <f>SUM(AQ57:AQ62)</f>
-        <v>814</v>
+        <v>1824</v>
       </c>
       <c r="AS63" t="s">
         <v>17</v>
@@ -34926,33 +35042,33 @@
       </c>
     </row>
     <row r="80" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="R80" s="4" t="s">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="R80" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="AF80" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="AF80" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
-      <c r="AI80" s="4"/>
-      <c r="AJ80" s="4"/>
-      <c r="AK80" s="4"/>
-      <c r="AL80" s="4"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
+      <c r="AL80" s="6"/>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
@@ -35819,7 +35935,7 @@
       </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="Q91" s="6"/>
+      <c r="Q91" s="5"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
@@ -35829,7 +35945,7 @@
       <c r="X91" s="3"/>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="Q92" s="6"/>
+      <c r="Q92" s="5"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
@@ -35839,95 +35955,95 @@
       <c r="X92" s="3"/>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+      <c r="U95" s="5"/>
+      <c r="V95" s="5"/>
+      <c r="W95" s="5"/>
+      <c r="X95" s="5"/>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="5"/>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
@@ -36306,15 +36422,15 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
@@ -36691,11 +36807,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AT55:AZ55"/>
-    <mergeCell ref="BH55:BN55"/>
-    <mergeCell ref="BV55:CB55"/>
-    <mergeCell ref="CJ55:CP55"/>
-    <mergeCell ref="CX55:DD55"/>
     <mergeCell ref="R28:X28"/>
     <mergeCell ref="AA28:AG28"/>
     <mergeCell ref="AJ28:AP28"/>
@@ -36709,6 +36820,11 @@
     <mergeCell ref="AF55:AL55"/>
     <mergeCell ref="R80:X80"/>
     <mergeCell ref="AF80:AL80"/>
+    <mergeCell ref="AT55:AZ55"/>
+    <mergeCell ref="BH55:BN55"/>
+    <mergeCell ref="BV55:CB55"/>
+    <mergeCell ref="CJ55:CP55"/>
+    <mergeCell ref="CX55:DD55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DocEsterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
+++ b/DocEsterna/PianoDiProgetto/Charts/GraficiPreventivo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SWE\RepoDocumentazione\CodeBusters-Docs\DocEsterna\PianoDiProgetto\Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C4641C-9C53-4CEF-9E5F-3248754F79E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F0F70D-7A4E-4CFA-AFE7-B0EE3F4F351F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="27">
   <si>
     <t>Baldisseri Michele</t>
   </si>
@@ -102,43 +102,19 @@
     <t>Riepilogo rendicontato</t>
   </si>
   <si>
-    <t>Periodo I</t>
-  </si>
-  <si>
-    <t>Periodo II</t>
-  </si>
-  <si>
-    <t>Periodo III</t>
-  </si>
-  <si>
     <t>totale</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
   <si>
     <t>VI</t>
   </si>
   <si>
-    <t>VII</t>
-  </si>
-  <si>
     <t>Safdari Hossain</t>
   </si>
   <si>
-    <t>X</t>
+    <t>verifica e collaudo</t>
   </si>
   <si>
-    <t>XI</t>
+    <t>TB</t>
   </si>
 </sst>
 </file>
@@ -188,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,6 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2725,7 +2702,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,7 +2773,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -2941,7 +2918,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3020,17 +2997,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3100,26 +3086,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,25 +3193,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,7 +3574,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -3742,16 +3725,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3825,22 +3805,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,10 +3888,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -3924,6 +3898,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4014,25 +3994,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4549,10 +4529,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4623,16 +4603,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
@@ -4705,7 +4685,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -4803,13 +4795,13 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
@@ -5106,6 +5098,9 @@
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5397,7 +5392,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -5406,10 +5401,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -5482,8 +5477,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -5580,25 +5581,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,6 +6103,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
@@ -6174,22 +6178,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6260,10 +6267,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -6357,25 +6373,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6609,7 +6625,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CJ$56</c:f>
+              <c:f>Foglio1!$R$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6630,7 +6646,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CI$57:$CI$63</c:f>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6643,7 +6659,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -6659,22 +6675,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CJ$57:$CJ$63</c:f>
+              <c:f>Foglio1!$R$30:$R$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1522-494D-BB85-A1B87058A6C7}"/>
+              <c16:uniqueId val="{00000000-0FD5-4B51-974B-E510E1755634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6683,7 +6714,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CK$56</c:f>
+              <c:f>Foglio1!$S$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6704,7 +6735,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CI$57:$CI$63</c:f>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6717,7 +6748,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -6733,22 +6764,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CK$57:$CK$63</c:f>
+              <c:f>Foglio1!$S$30:$S$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1522-494D-BB85-A1B87058A6C7}"/>
+              <c16:uniqueId val="{00000001-0FD5-4B51-974B-E510E1755634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6757,7 +6803,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CL$56</c:f>
+              <c:f>Foglio1!$T$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6778,7 +6824,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CI$57:$CI$63</c:f>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6791,7 +6837,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -6807,16 +6853,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CL$57:$CL$63</c:f>
+              <c:f>Foglio1!$T$30:$T$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1522-494D-BB85-A1B87058A6C7}"/>
+              <c16:uniqueId val="{00000002-0FD5-4B51-974B-E510E1755634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6825,7 +6892,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CM$56</c:f>
+              <c:f>Foglio1!$U$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6846,7 +6913,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CI$57:$CI$63</c:f>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6859,7 +6926,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -6875,22 +6942,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CM$57:$CM$63</c:f>
+              <c:f>Foglio1!$U$30:$U$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1522-494D-BB85-A1B87058A6C7}"/>
+              <c16:uniqueId val="{00000003-0FD5-4B51-974B-E510E1755634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6899,7 +6981,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CN$56</c:f>
+              <c:f>Foglio1!$V$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6920,7 +7002,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CI$57:$CI$63</c:f>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6933,7 +7015,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -6949,37 +7031,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CN$57:$CN$63</c:f>
+              <c:f>Foglio1!$V$30:$V$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1522-494D-BB85-A1B87058A6C7}"/>
+              <c16:uniqueId val="{00000004-0FD5-4B51-974B-E510E1755634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6988,7 +7070,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CO$56</c:f>
+              <c:f>Foglio1!$W$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7009,7 +7091,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CI$57:$CI$63</c:f>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7022,7 +7104,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7038,7 +7120,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CO$57:$CO$63</c:f>
+              <c:f>Foglio1!$W$30:$W$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7046,20 +7128,29 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1522-494D-BB85-A1B87058A6C7}"/>
+              <c16:uniqueId val="{00000005-0FD5-4B51-974B-E510E1755634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7073,8 +7164,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1092170287"/>
-        <c:axId val="1092173199"/>
+        <c:axId val="1139453535"/>
+        <c:axId val="1139459775"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7084,7 +7175,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CP$56</c:f>
+              <c:f>Foglio1!$X$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7109,7 +7200,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CI$57:$CI$63</c:f>
+              <c:f>Foglio1!$Q$30:$Q$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7122,7 +7213,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7138,30 +7229,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CP$57:$CP$63</c:f>
+              <c:f>Foglio1!$X$30:$X$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7169,7 +7260,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1522-494D-BB85-A1B87058A6C7}"/>
+              <c16:uniqueId val="{00000006-0FD5-4B51-974B-E510E1755634}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7183,11 +7274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1092170287"/>
-        <c:axId val="1092173199"/>
+        <c:axId val="1139453535"/>
+        <c:axId val="1139459775"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1092170287"/>
+        <c:axId val="1139453535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7230,7 +7321,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092173199"/>
+        <c:crossAx val="1139459775"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7238,7 +7329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1092173199"/>
+        <c:axId val="1139459775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7289,7 +7380,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1092170287"/>
+        <c:crossAx val="1139453535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7395,7 +7486,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CX$56</c:f>
+              <c:f>Foglio1!$AA$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7416,7 +7507,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CW$57:$CW$63</c:f>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7429,7 +7520,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7445,19 +7536,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CX$57:$CX$63</c:f>
+              <c:f>Foglio1!$AA$30:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C25-4371-8676-34DB2E6AF2F8}"/>
+              <c16:uniqueId val="{00000000-DD3D-4DE6-8511-0C2C320EA6AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7466,7 +7575,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CY$56</c:f>
+              <c:f>Foglio1!$AB$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7487,7 +7596,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CW$57:$CW$63</c:f>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7500,7 +7609,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7516,19 +7625,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CY$57:$CY$63</c:f>
+              <c:f>Foglio1!$AB$30:$AB$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C25-4371-8676-34DB2E6AF2F8}"/>
+              <c16:uniqueId val="{00000001-DD3D-4DE6-8511-0C2C320EA6AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7537,7 +7664,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$CZ$56</c:f>
+              <c:f>Foglio1!$AC$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7558,7 +7685,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CW$57:$CW$63</c:f>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7571,7 +7698,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7587,16 +7714,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$CZ$57:$CZ$63</c:f>
+              <c:f>Foglio1!$AC$30:$AC$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0C25-4371-8676-34DB2E6AF2F8}"/>
+              <c16:uniqueId val="{00000002-DD3D-4DE6-8511-0C2C320EA6AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7605,7 +7753,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$DA$56</c:f>
+              <c:f>Foglio1!$AD$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7626,7 +7774,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CW$57:$CW$63</c:f>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7639,7 +7787,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7655,16 +7803,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$DA$57:$DA$63</c:f>
+              <c:f>Foglio1!$AD$30:$AD$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0C25-4371-8676-34DB2E6AF2F8}"/>
+              <c16:uniqueId val="{00000003-DD3D-4DE6-8511-0C2C320EA6AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7673,7 +7842,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$DB$56</c:f>
+              <c:f>Foglio1!$AE$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7694,7 +7863,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CW$57:$CW$63</c:f>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7707,7 +7876,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7723,31 +7892,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$DB$57:$DB$63</c:f>
+              <c:f>Foglio1!$AE$30:$AE$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0C25-4371-8676-34DB2E6AF2F8}"/>
+              <c16:uniqueId val="{00000004-DD3D-4DE6-8511-0C2C320EA6AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7756,7 +7931,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$DC$56</c:f>
+              <c:f>Foglio1!$AF$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7777,7 +7952,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CW$57:$CW$63</c:f>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7790,7 +7965,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7806,34 +7981,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$DC$57:$DC$63</c:f>
+              <c:f>Foglio1!$AF$30:$AF$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0C25-4371-8676-34DB2E6AF2F8}"/>
+              <c16:uniqueId val="{00000005-DD3D-4DE6-8511-0C2C320EA6AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7847,8 +8025,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1093588767"/>
-        <c:axId val="1093589183"/>
+        <c:axId val="1023361007"/>
+        <c:axId val="1023351439"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7858,7 +8036,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$DD$56</c:f>
+              <c:f>Foglio1!$AG$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7883,7 +8061,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$CW$57:$CW$63</c:f>
+              <c:f>Foglio1!$Z$30:$Z$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -7896,7 +8074,7 @@
                   <c:v>Rago Alessandro</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Safdari Hossain</c:v>
+                  <c:v>Safdari Hossaine</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sassaro Giacomo</c:v>
@@ -7912,30 +8090,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$DD$57:$DD$63</c:f>
+              <c:f>Foglio1!$AG$30:$AG$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7943,7 +8121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0C25-4371-8676-34DB2E6AF2F8}"/>
+              <c16:uniqueId val="{00000006-DD3D-4DE6-8511-0C2C320EA6AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7957,11 +8135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1093588767"/>
-        <c:axId val="1093589183"/>
+        <c:axId val="1023361007"/>
+        <c:axId val="1023351439"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1093588767"/>
+        <c:axId val="1023361007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,7 +8182,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093589183"/>
+        <c:crossAx val="1023351439"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8012,7 +8190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1093589183"/>
+        <c:axId val="1023351439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8063,7 +8241,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093588767"/>
+        <c:crossAx val="1023361007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9011,1728 +9189,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$R$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Q$30:$Q$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$R$30:$R$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FD5-4B51-974B-E510E1755634}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$S$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Q$30:$Q$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$S$30:$S$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FD5-4B51-974B-E510E1755634}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$T$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Q$30:$Q$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$T$30:$T$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FD5-4B51-974B-E510E1755634}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$U$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Q$30:$Q$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$U$30:$U$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0FD5-4B51-974B-E510E1755634}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$V$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Q$30:$Q$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$V$30:$V$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0FD5-4B51-974B-E510E1755634}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$W$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Q$30:$Q$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$W$30:$W$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0FD5-4B51-974B-E510E1755634}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1139453535"/>
-        <c:axId val="1139459775"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$X$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Totale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Q$30:$Q$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$X$30:$X$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-0FD5-4B51-974B-E510E1755634}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1139453535"/>
-        <c:axId val="1139459775"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1139453535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1139459775"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1139459775"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1139453535"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AA$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Z$30:$Z$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AA$30:$AA$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD3D-4DE6-8511-0C2C320EA6AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AB$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Z$30:$Z$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AB$30:$AB$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD3D-4DE6-8511-0C2C320EA6AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AC$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Z$30:$Z$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AC$30:$AC$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DD3D-4DE6-8511-0C2C320EA6AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AD$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Z$30:$Z$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AD$30:$AD$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DD3D-4DE6-8511-0C2C320EA6AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AE$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Z$30:$Z$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AE$30:$AE$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DD3D-4DE6-8511-0C2C320EA6AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AF$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Z$30:$Z$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AF$30:$AF$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-DD3D-4DE6-8511-0C2C320EA6AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1023361007"/>
-        <c:axId val="1023351439"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$AG$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Totale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$Z$30:$Z$36</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Baldisseri Michele</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pirolo Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Rago Alessandro</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safdari Hossaine</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sassaro Giacomo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scialpi Paolo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Zenere Marco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$AG$30:$AG$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DD3D-4DE6-8511-0C2C320EA6AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1023361007"/>
-        <c:axId val="1023351439"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1023361007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1023351439"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1023351439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1023361007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Foglio1!$AJ$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -11568,7 +10024,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -11652,10 +10108,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -11664,7 +10120,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -11741,7 +10197,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -12008,7 +10464,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
@@ -12017,7 +10473,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12088,7 +10544,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -12097,13 +10553,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12194,25 +10650,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12420,7 +10876,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -12504,7 +10960,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -12579,9 +11035,6 @@
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -12800,13 +11253,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -12880,22 +11333,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12986,25 +11439,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13133,6 +11586,786 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1023365999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AT$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AS$82:$AS$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AT$82:$AT$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C41F-434C-A93B-5DDA408B094B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AU$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AS$82:$AS$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AU$82:$AU$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C41F-434C-A93B-5DDA408B094B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AV$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AS$82:$AS$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AV$82:$AV$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C41F-434C-A93B-5DDA408B094B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AW$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AS$82:$AS$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AW$82:$AW$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C41F-434C-A93B-5DDA408B094B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AX$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AS$82:$AS$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AX$82:$AX$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C41F-434C-A93B-5DDA408B094B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AY$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AS$82:$AS$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AY$82:$AY$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C41F-434C-A93B-5DDA408B094B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1414361471"/>
+        <c:axId val="1414354815"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$AZ$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Totale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AS$82:$AS$88</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Baldisseri Michele</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pirolo Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rago Alessandro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Safdari Hossaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sassaro Giacomo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scialpi Paolo</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Zenere Marco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AZ$82:$AZ$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C41F-434C-A93B-5DDA408B094B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1414361471"/>
+        <c:axId val="1414354815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1414361471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1414354815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1414354815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1414361471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17912,46 +17145,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25816,509 +25009,6 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30922,14 +29612,14 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>73508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>149708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31028,78 +29718,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Grafico 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624D8B83-8253-451C-B2DE-577FD33BEA54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>100</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Grafico 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DDC1D9-5E0A-4770-B59D-AB6914A3CF9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -31128,7 +29746,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31164,7 +29782,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31200,7 +29818,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31236,7 +29854,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31272,7 +29890,43 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>563218</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>145774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Grafico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB16D67-A4BC-4265-9508-9583E23C6231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31544,10 +30198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI153"/>
+  <dimension ref="A1:DG153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
+    <sheetView tabSelected="1" zoomScale="26" zoomScaleNormal="26" workbookViewId="0">
+      <selection activeCell="AU123" sqref="AU123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32143,7 +30797,7 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AB24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC24">
         <f>S20+AD20+AL20</f>
@@ -32161,7 +30815,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="R28" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
@@ -32169,8 +30823,8 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="AA28" s="6" t="s">
-        <v>23</v>
+      <c r="AA28" s="6">
+        <v>1</v>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
@@ -32178,8 +30832,8 @@
       <c r="AE28" s="6"/>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
-      <c r="AJ28" s="6" t="s">
-        <v>24</v>
+      <c r="AJ28" s="6">
+        <v>2</v>
       </c>
       <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
@@ -33191,23 +31845,48 @@
         <v>57</v>
       </c>
     </row>
+    <row r="40" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AU40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+    </row>
     <row r="41" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
+      <c r="AU41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
-      <c r="AW42" s="3"/>
-      <c r="AX42" s="3"/>
-      <c r="AY42" s="3"/>
+      <c r="AT42" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <f>SUM(AU42:AZ42)</f>
+        <v>0</v>
+      </c>
       <c r="CG42" s="3"/>
       <c r="CH42" s="3"/>
       <c r="CI42" s="3"/>
@@ -33216,7 +31895,61 @@
       <c r="CL42" s="3"/>
       <c r="CM42" s="3"/>
     </row>
-    <row r="55" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AT43" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA43">
+        <f t="shared" ref="BA42:BA48" si="15">SUM(AU43:AZ43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AT44" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AT45" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AT46" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AT47" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="AT48" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>15</v>
       </c>
@@ -33226,8 +31959,8 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="R55" s="6" t="s">
-        <v>27</v>
+      <c r="R55" s="6">
+        <v>3</v>
       </c>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
@@ -33235,8 +31968,8 @@
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
-      <c r="AF55" s="6" t="s">
-        <v>26</v>
+      <c r="AF55" s="6">
+        <v>4</v>
       </c>
       <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
@@ -33244,8 +31977,8 @@
       <c r="AJ55" s="6"/>
       <c r="AK55" s="6"/>
       <c r="AL55" s="6"/>
-      <c r="AT55" s="6" t="s">
-        <v>27</v>
+      <c r="AT55" s="6">
+        <v>5</v>
       </c>
       <c r="AU55" s="6"/>
       <c r="AV55" s="6"/>
@@ -33253,8 +31986,8 @@
       <c r="AX55" s="6"/>
       <c r="AY55" s="6"/>
       <c r="AZ55" s="6"/>
-      <c r="BH55" s="6" t="s">
-        <v>28</v>
+      <c r="BH55" s="6">
+        <v>6</v>
       </c>
       <c r="BI55" s="6"/>
       <c r="BJ55" s="6"/>
@@ -33262,8 +31995,8 @@
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
       <c r="BN55" s="6"/>
-      <c r="BV55" s="6" t="s">
-        <v>29</v>
+      <c r="BV55" s="6">
+        <v>7</v>
       </c>
       <c r="BW55" s="6"/>
       <c r="BX55" s="6"/>
@@ -33271,26 +32004,24 @@
       <c r="BZ55" s="6"/>
       <c r="CA55" s="6"/>
       <c r="CB55" s="6"/>
-      <c r="CJ55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="CK55" s="6"/>
-      <c r="CL55" s="6"/>
-      <c r="CM55" s="6"/>
-      <c r="CN55" s="6"/>
-      <c r="CO55" s="6"/>
-      <c r="CP55" s="6"/>
-      <c r="CX55" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="CY55" s="6"/>
-      <c r="CZ55" s="6"/>
-      <c r="DA55" s="6"/>
-      <c r="DB55" s="6"/>
-      <c r="DC55" s="6"/>
-      <c r="DD55" s="6"/>
+      <c r="CR55" s="7"/>
+      <c r="CS55" s="7"/>
+      <c r="CT55" s="7"/>
+      <c r="CU55" s="7"/>
+      <c r="CV55" s="7"/>
+      <c r="CW55" s="7"/>
+      <c r="CX55" s="7"/>
+      <c r="CY55" s="7"/>
+      <c r="CZ55" s="7"/>
+      <c r="DA55" s="7"/>
+      <c r="DB55" s="7"/>
+      <c r="DC55" s="7"/>
+      <c r="DD55" s="7"/>
+      <c r="DE55" s="7"/>
+      <c r="DF55" s="7"/>
+      <c r="DG55" s="7"/>
     </row>
-    <row r="56" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:111" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>8</v>
       </c>
@@ -33453,62 +32184,24 @@
       <c r="CG56" t="s">
         <v>19</v>
       </c>
-      <c r="CJ56" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK56" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL56" t="s">
-        <v>10</v>
-      </c>
-      <c r="CM56" t="s">
-        <v>11</v>
-      </c>
-      <c r="CN56" t="s">
-        <v>12</v>
-      </c>
-      <c r="CO56" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP56" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT56" t="s">
-        <v>18</v>
-      </c>
-      <c r="CU56" t="s">
-        <v>19</v>
-      </c>
-      <c r="CX56" t="s">
-        <v>8</v>
-      </c>
-      <c r="CY56" t="s">
-        <v>9</v>
-      </c>
-      <c r="CZ56" t="s">
-        <v>10</v>
-      </c>
-      <c r="DA56" t="s">
-        <v>11</v>
-      </c>
-      <c r="DB56" t="s">
-        <v>12</v>
-      </c>
-      <c r="DC56" t="s">
-        <v>13</v>
-      </c>
-      <c r="DD56" t="s">
-        <v>7</v>
-      </c>
-      <c r="DH56" t="s">
-        <v>18</v>
-      </c>
-      <c r="DI56" t="s">
-        <v>19</v>
-      </c>
+      <c r="CR56" s="7"/>
+      <c r="CS56" s="7"/>
+      <c r="CT56" s="7"/>
+      <c r="CU56" s="7"/>
+      <c r="CV56" s="7"/>
+      <c r="CW56" s="7"/>
+      <c r="CX56" s="7"/>
+      <c r="CY56" s="7"/>
+      <c r="CZ56" s="7"/>
+      <c r="DA56" s="7"/>
+      <c r="DB56" s="7"/>
+      <c r="DC56" s="7"/>
+      <c r="DD56" s="7"/>
+      <c r="DE56" s="7"/>
+      <c r="DF56" s="7"/>
+      <c r="DG56" s="7"/>
     </row>
-    <row r="57" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -33531,7 +32224,7 @@
         <v>13</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57:H63" si="15">SUM(B57:G57)</f>
+        <f t="shared" ref="H57:H63" si="16">SUM(B57:G57)</f>
         <v>50</v>
       </c>
       <c r="K57" t="s">
@@ -33548,35 +32241,34 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U57">
         <v>2</v>
       </c>
-      <c r="W57">
-        <v>6</v>
+      <c r="V57">
+        <v>4</v>
       </c>
       <c r="X57">
-        <f t="shared" ref="X57:X63" si="16">SUM(R57:W57)</f>
-        <v>10</v>
-      </c>
-      <c r="Z57" s="2"/>
+        <f t="shared" ref="X57:X63" si="17">SUM(R57:W57)</f>
+        <v>9</v>
+      </c>
       <c r="AA57" t="s">
         <v>8</v>
       </c>
       <c r="AB57">
         <f>SUM(R57:R63)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC57">
         <f>AB57*30</f>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE57" t="s">
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI57">
         <v>4</v>
@@ -33585,11 +32277,11 @@
         <v>2</v>
       </c>
       <c r="AK57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL57">
-        <f t="shared" ref="AL57:AL63" si="17">SUM(AF57:AK57)</f>
-        <v>13</v>
+        <f t="shared" ref="AL57:AL63" si="18">SUM(AF57:AK57)</f>
+        <v>10</v>
       </c>
       <c r="AO57" t="s">
         <v>8</v>
@@ -33609,10 +32301,13 @@
         <v>5</v>
       </c>
       <c r="AX57">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>2</v>
       </c>
       <c r="AZ57">
-        <f t="shared" ref="AZ57:AZ63" si="18">SUM(AT57:AY57)</f>
+        <f t="shared" ref="AZ57:AZ63" si="19">SUM(AT57:AY57)</f>
         <v>10</v>
       </c>
       <c r="BC57" t="s">
@@ -33630,35 +32325,38 @@
         <v>0</v>
       </c>
       <c r="BL57">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="BM57">
+        <v>2</v>
       </c>
       <c r="BN57">
-        <f t="shared" ref="BN57:BN63" si="19">SUM(BH57:BM57)</f>
-        <v>9</v>
+        <f t="shared" ref="BN57:BN63" si="20">SUM(BH57:BM57)</f>
+        <v>10</v>
       </c>
       <c r="BQ57" t="s">
         <v>8</v>
       </c>
       <c r="BR57">
         <f>SUM(BH57:BH63)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS57">
         <f>BR57*30</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BU57" t="s">
         <v>0</v>
       </c>
       <c r="BZ57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CA57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CB57">
-        <f t="shared" ref="CB57:CB63" si="20">SUM(BV57:CA57)</f>
-        <v>8</v>
+        <f t="shared" ref="CB57:CB63" si="21">SUM(BV57:CA57)</f>
+        <v>11</v>
       </c>
       <c r="CE57" t="s">
         <v>8</v>
@@ -33671,53 +32369,24 @@
         <f>CF57*30</f>
         <v>180</v>
       </c>
-      <c r="CI57" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN57">
-        <v>2</v>
-      </c>
-      <c r="CO57">
-        <v>4</v>
-      </c>
-      <c r="CP57">
-        <f t="shared" ref="CP57:CP63" si="21">SUM(CJ57:CO57)</f>
-        <v>6</v>
-      </c>
-      <c r="CS57" t="s">
-        <v>8</v>
-      </c>
-      <c r="CT57">
-        <f>SUM(CJ57:CJ63)</f>
-        <v>3</v>
-      </c>
-      <c r="CU57">
-        <f>CT57*30</f>
-        <v>90</v>
-      </c>
-      <c r="CW57" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC57">
-        <v>6</v>
-      </c>
-      <c r="DD57">
-        <f t="shared" ref="DD57:DD63" si="22">SUM(CX57:DC57)</f>
-        <v>6</v>
-      </c>
-      <c r="DG57" t="s">
-        <v>8</v>
-      </c>
-      <c r="DH57">
-        <f>SUM(CX57:CX63)</f>
-        <v>3</v>
-      </c>
-      <c r="DI57">
-        <f>DH57*30</f>
-        <v>90</v>
-      </c>
+      <c r="CR57" s="7"/>
+      <c r="CS57" s="7"/>
+      <c r="CT57" s="7"/>
+      <c r="CU57" s="7"/>
+      <c r="CV57" s="7"/>
+      <c r="CW57" s="7"/>
+      <c r="CX57" s="7"/>
+      <c r="CY57" s="7"/>
+      <c r="CZ57" s="7"/>
+      <c r="DA57" s="7"/>
+      <c r="DB57" s="7"/>
+      <c r="DC57" s="7"/>
+      <c r="DD57" s="7"/>
+      <c r="DE57" s="7"/>
+      <c r="DF57" s="7"/>
+      <c r="DG57" s="7"/>
     </row>
-    <row r="58" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -33740,7 +32409,7 @@
         <v>15</v>
       </c>
       <c r="H58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="K58" t="s">
@@ -33757,25 +32426,25 @@
         <v>1</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W58">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X58">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>9</v>
       </c>
       <c r="AA58" t="s">
         <v>9</v>
       </c>
       <c r="AB58">
         <f>SUM(S57:S63)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC58">
         <f>AB58*20</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AE58" t="s">
         <v>1</v>
@@ -33784,25 +32453,22 @@
         <v>5</v>
       </c>
       <c r="AJ58">
-        <v>8</v>
-      </c>
-      <c r="AK58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL58">
-        <f t="shared" si="17"/>
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="AO58" t="s">
         <v>9</v>
       </c>
       <c r="AP58">
         <f>SUM(AG57:AG63)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ58">
         <f>AP58*20</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS58" t="s">
         <v>1</v>
@@ -33817,7 +32483,7 @@
         <v>3</v>
       </c>
       <c r="AZ58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="BC58" t="s">
@@ -33840,9 +32506,12 @@
       <c r="BL58">
         <v>5</v>
       </c>
+      <c r="BM58">
+        <v>3</v>
+      </c>
       <c r="BN58">
-        <f t="shared" si="19"/>
-        <v>7</v>
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="BQ58" t="s">
         <v>9</v>
@@ -33861,9 +32530,12 @@
       <c r="BZ58">
         <v>8</v>
       </c>
+      <c r="CA58">
+        <v>2</v>
+      </c>
       <c r="CB58">
-        <f t="shared" si="20"/>
-        <v>8</v>
+        <f t="shared" si="21"/>
+        <v>10</v>
       </c>
       <c r="CE58" t="s">
         <v>9</v>
@@ -33876,56 +32548,24 @@
         <f>CF58*20</f>
         <v>120</v>
       </c>
-      <c r="CI58" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN58">
-        <v>5</v>
-      </c>
-      <c r="CO58">
-        <v>4</v>
-      </c>
-      <c r="CP58">
-        <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="CS58" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT58">
-        <f>SUM(CK57:CK63)</f>
-        <v>3</v>
-      </c>
-      <c r="CU58">
-        <f>CT58*20</f>
-        <v>60</v>
-      </c>
-      <c r="CW58" t="s">
-        <v>1</v>
-      </c>
-      <c r="DB58">
-        <v>2</v>
-      </c>
-      <c r="DC58">
-        <v>6</v>
-      </c>
-      <c r="DD58">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="DG58" t="s">
-        <v>9</v>
-      </c>
-      <c r="DH58">
-        <f>SUM(CY57:CY63)</f>
-        <v>2</v>
-      </c>
-      <c r="DI58">
-        <f>DH58*20</f>
-        <v>40</v>
-      </c>
+      <c r="CR58" s="7"/>
+      <c r="CS58" s="7"/>
+      <c r="CT58" s="7"/>
+      <c r="CU58" s="7"/>
+      <c r="CV58" s="7"/>
+      <c r="CW58" s="7"/>
+      <c r="CX58" s="7"/>
+      <c r="CY58" s="7"/>
+      <c r="CZ58" s="7"/>
+      <c r="DA58" s="7"/>
+      <c r="DB58" s="7"/>
+      <c r="DC58" s="7"/>
+      <c r="DD58" s="7"/>
+      <c r="DE58" s="7"/>
+      <c r="DF58" s="7"/>
+      <c r="DG58" s="7"/>
     </row>
-    <row r="59" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -33948,7 +32588,7 @@
         <v>10</v>
       </c>
       <c r="H59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="K59" t="s">
@@ -33965,17 +32605,17 @@
         <v>4</v>
       </c>
       <c r="U59">
+        <v>6</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
         <v>3</v>
       </c>
-      <c r="V59">
-        <v>4</v>
-      </c>
-      <c r="W59">
-        <v>2</v>
-      </c>
       <c r="X59">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="AA59" t="s">
         <v>10</v>
@@ -33992,17 +32632,17 @@
         <v>4</v>
       </c>
       <c r="AI59">
+        <v>2</v>
+      </c>
+      <c r="AJ59">
         <v>5</v>
-      </c>
-      <c r="AJ59">
-        <v>7</v>
       </c>
       <c r="AK59">
         <v>3</v>
       </c>
       <c r="AL59">
-        <f t="shared" si="17"/>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="AO59" t="s">
         <v>10</v>
@@ -34022,11 +32662,11 @@
         <v>2</v>
       </c>
       <c r="AX59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ59">
-        <f t="shared" si="18"/>
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="BC59" t="s">
         <v>10</v>
@@ -34046,11 +32686,11 @@
         <v>5</v>
       </c>
       <c r="BM59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN59">
-        <f t="shared" si="19"/>
-        <v>9</v>
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="BQ59" t="s">
         <v>10</v>
@@ -34070,14 +32710,14 @@
         <v>4</v>
       </c>
       <c r="BZ59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CA59">
         <v>1</v>
       </c>
       <c r="CB59">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f t="shared" si="21"/>
+        <v>11</v>
       </c>
       <c r="CE59" t="s">
         <v>10</v>
@@ -34090,53 +32730,24 @@
         <f>CF59*25</f>
         <v>0</v>
       </c>
-      <c r="CI59" t="s">
-        <v>4</v>
-      </c>
-      <c r="CM59">
-        <v>3</v>
-      </c>
-      <c r="CN59">
-        <v>5</v>
-      </c>
-      <c r="CP59">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="CS59" t="s">
-        <v>10</v>
-      </c>
-      <c r="CT59">
-        <f>SUM(CL57:CL63)</f>
-        <v>0</v>
-      </c>
-      <c r="CU59">
-        <f>CT59*25</f>
-        <v>0</v>
-      </c>
-      <c r="CW59" t="s">
-        <v>4</v>
-      </c>
-      <c r="DB59">
-        <v>6</v>
-      </c>
-      <c r="DD59">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="DG59" t="s">
-        <v>10</v>
-      </c>
-      <c r="DH59">
-        <f>SUM(CZ57:CZ63)</f>
-        <v>0</v>
-      </c>
-      <c r="DI59">
-        <f>DH59*25</f>
-        <v>0</v>
-      </c>
+      <c r="CR59" s="7"/>
+      <c r="CS59" s="7"/>
+      <c r="CT59" s="7"/>
+      <c r="CU59" s="7"/>
+      <c r="CV59" s="7"/>
+      <c r="CW59" s="7"/>
+      <c r="CX59" s="7"/>
+      <c r="CY59" s="7"/>
+      <c r="CZ59" s="7"/>
+      <c r="DA59" s="7"/>
+      <c r="DB59" s="7"/>
+      <c r="DC59" s="7"/>
+      <c r="DD59" s="7"/>
+      <c r="DE59" s="7"/>
+      <c r="DF59" s="7"/>
+      <c r="DG59" s="7"/>
     </row>
-    <row r="60" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -34159,7 +32770,7 @@
         <v>12</v>
       </c>
       <c r="H60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="K60" t="s">
@@ -34173,16 +32784,19 @@
         <v>1650</v>
       </c>
       <c r="Q60" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="U60">
         <v>1</v>
       </c>
+      <c r="V60">
+        <v>5</v>
+      </c>
       <c r="W60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="AA60" t="s">
@@ -34190,41 +32804,41 @@
       </c>
       <c r="AB60">
         <f>SUM(U57:U63)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC60">
         <f>AB60*22</f>
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="AE60" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI60">
         <v>6</v>
       </c>
       <c r="AJ60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AK60">
         <v>2</v>
       </c>
       <c r="AL60">
-        <f t="shared" si="17"/>
-        <v>16</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="AO60" t="s">
         <v>11</v>
       </c>
       <c r="AP60">
         <f>SUM(AI57:AI63)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AQ60">
         <f>AP60*22</f>
-        <v>594</v>
+        <v>506</v>
       </c>
       <c r="AS60" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -34235,23 +32849,26 @@
       <c r="AX60">
         <v>5</v>
       </c>
+      <c r="AY60">
+        <v>2</v>
+      </c>
       <c r="AZ60">
-        <f t="shared" si="18"/>
-        <v>8</v>
+        <f t="shared" si="19"/>
+        <v>10</v>
       </c>
       <c r="BC60" t="s">
         <v>11</v>
       </c>
       <c r="BD60">
         <f>SUM(AW57:AW63)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BE60">
         <f>BD60*22</f>
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="BG60" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BH60">
         <v>2</v>
@@ -34263,7 +32880,7 @@
         <v>2</v>
       </c>
       <c r="BN60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="BQ60" t="s">
@@ -34278,7 +32895,7 @@
         <v>242</v>
       </c>
       <c r="BU60" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BV60">
         <v>2</v>
@@ -34289,71 +32906,42 @@
       <c r="BZ60">
         <v>3</v>
       </c>
+      <c r="CA60">
+        <v>3</v>
+      </c>
       <c r="CB60">
-        <f t="shared" si="20"/>
-        <v>8</v>
+        <f t="shared" si="21"/>
+        <v>11</v>
       </c>
       <c r="CE60" t="s">
         <v>11</v>
       </c>
       <c r="CF60">
         <f>SUM(BY57:BY63)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CG60">
         <f>CF60*22</f>
-        <v>88</v>
-      </c>
-      <c r="CI60" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN60">
-        <v>6</v>
-      </c>
-      <c r="CO60">
-        <v>2</v>
-      </c>
-      <c r="CP60">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="CS60" t="s">
-        <v>11</v>
-      </c>
-      <c r="CT60">
-        <f>SUM(CM57:CM63)</f>
-        <v>5</v>
-      </c>
-      <c r="CU60">
-        <f>CT60*22</f>
-        <v>110</v>
-      </c>
-      <c r="CW60" t="s">
-        <v>32</v>
-      </c>
-      <c r="DB60">
-        <v>2</v>
-      </c>
-      <c r="DC60">
-        <v>5</v>
-      </c>
-      <c r="DD60">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="DG60" t="s">
-        <v>11</v>
-      </c>
-      <c r="DH60">
-        <f>SUM(DA57:DA63)</f>
-        <v>0</v>
-      </c>
-      <c r="DI60">
-        <f>DH60*22</f>
-        <v>0</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="CR60" s="7"/>
+      <c r="CS60" s="7"/>
+      <c r="CT60" s="7"/>
+      <c r="CU60" s="7"/>
+      <c r="CV60" s="7"/>
+      <c r="CW60" s="7"/>
+      <c r="CX60" s="7"/>
+      <c r="CY60" s="7"/>
+      <c r="CZ60" s="7"/>
+      <c r="DA60" s="7"/>
+      <c r="DB60" s="7"/>
+      <c r="DC60" s="7"/>
+      <c r="DD60" s="7"/>
+      <c r="DE60" s="7"/>
+      <c r="DF60" s="7"/>
+      <c r="DG60" s="7"/>
     </row>
-    <row r="61" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -34376,7 +32964,7 @@
         <v>10</v>
       </c>
       <c r="H61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="K61" t="s">
@@ -34399,22 +32987,22 @@
         <v>4</v>
       </c>
       <c r="W61">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X61">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="17"/>
+        <v>9</v>
       </c>
       <c r="AA61" t="s">
         <v>12</v>
       </c>
       <c r="AB61">
         <f>SUM(V57:V63)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AC61">
         <f>AB61*15</f>
-        <v>180</v>
+        <v>345</v>
       </c>
       <c r="AE61" t="s">
         <v>3</v>
@@ -34423,28 +33011,25 @@
         <v>2</v>
       </c>
       <c r="AI61">
-        <v>5</v>
-      </c>
-      <c r="AJ61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK61">
         <v>2</v>
       </c>
       <c r="AL61">
-        <f t="shared" si="17"/>
-        <v>14</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="AO61" t="s">
         <v>12</v>
       </c>
       <c r="AP61">
         <f>SUM(AJ57:AJ63)</f>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AQ61">
         <f>AP61*15</f>
-        <v>765</v>
+        <v>420</v>
       </c>
       <c r="AS61" t="s">
         <v>3</v>
@@ -34453,22 +33038,25 @@
         <v>4</v>
       </c>
       <c r="AW61">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>2</v>
       </c>
       <c r="AZ61">
-        <f t="shared" si="18"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>10</v>
       </c>
       <c r="BC61" t="s">
         <v>12</v>
       </c>
       <c r="BD61">
         <f>SUM(AX57:AX63)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BE61">
         <f>BD61*15</f>
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="BG61" t="s">
         <v>3</v>
@@ -34477,97 +33065,65 @@
         <v>2</v>
       </c>
       <c r="BL61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BN61">
-        <f t="shared" si="19"/>
-        <v>8</v>
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="BQ61" t="s">
         <v>12</v>
       </c>
       <c r="BR61">
         <f>SUM(BL57:BL63)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="BS61">
         <f>BR61*15</f>
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="BU61" t="s">
         <v>3</v>
       </c>
       <c r="BZ61">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="CA61">
+        <v>2</v>
       </c>
       <c r="CB61">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f t="shared" si="21"/>
+        <v>11</v>
       </c>
       <c r="CE61" t="s">
         <v>12</v>
       </c>
       <c r="CF61">
         <f>SUM(BZ57:BZ63)</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="CG61">
         <f>CF61*15</f>
-        <v>390</v>
-      </c>
-      <c r="CI61" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK61">
-        <v>2</v>
-      </c>
-      <c r="CN61">
-        <v>5</v>
-      </c>
-      <c r="CO61">
-        <v>2</v>
-      </c>
-      <c r="CP61">
-        <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="CS61" t="s">
-        <v>12</v>
-      </c>
-      <c r="CT61">
-        <f>SUM(CN57:CN63)</f>
-        <v>32</v>
-      </c>
-      <c r="CU61">
-        <f>CT61*15</f>
-        <v>480</v>
-      </c>
-      <c r="CW61" t="s">
-        <v>3</v>
-      </c>
-      <c r="DB61">
-        <v>2</v>
-      </c>
-      <c r="DC61">
-        <v>6</v>
-      </c>
-      <c r="DD61">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="DG61" t="s">
-        <v>12</v>
-      </c>
-      <c r="DH61">
-        <f>SUM(DB57:DB63)</f>
-        <v>14</v>
-      </c>
-      <c r="DI61">
-        <f>DH61*15</f>
-        <v>210</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="CR61" s="7"/>
+      <c r="CS61" s="7"/>
+      <c r="CT61" s="7"/>
+      <c r="CU61" s="7"/>
+      <c r="CV61" s="7"/>
+      <c r="CW61" s="7"/>
+      <c r="CX61" s="7"/>
+      <c r="CY61" s="7"/>
+      <c r="CZ61" s="7"/>
+      <c r="DA61" s="7"/>
+      <c r="DB61" s="7"/>
+      <c r="DC61" s="7"/>
+      <c r="DD61" s="7"/>
+      <c r="DE61" s="7"/>
+      <c r="DF61" s="7"/>
+      <c r="DG61" s="7"/>
     </row>
-    <row r="62" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -34590,7 +33146,7 @@
         <v>11</v>
       </c>
       <c r="H62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="K62" t="s">
@@ -34613,25 +33169,25 @@
         <v>2</v>
       </c>
       <c r="V62">
+        <v>4</v>
+      </c>
+      <c r="W62">
         <v>2</v>
       </c>
-      <c r="W62">
-        <v>7</v>
-      </c>
       <c r="X62">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="AA62" t="s">
         <v>13</v>
       </c>
       <c r="AB62">
         <f>SUM(W57:W63)</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AC62">
         <f>AB62*15</f>
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="AE62" t="s">
         <v>2</v>
@@ -34639,38 +33195,41 @@
       <c r="AF62">
         <v>2</v>
       </c>
-      <c r="AI62">
+      <c r="AJ62">
+        <v>7</v>
+      </c>
+      <c r="AK62">
         <v>2</v>
       </c>
-      <c r="AJ62">
+      <c r="AL62">
+        <f t="shared" si="18"/>
         <v>11</v>
-      </c>
-      <c r="AL62">
-        <f t="shared" si="17"/>
-        <v>15</v>
       </c>
       <c r="AO62" t="s">
         <v>13</v>
       </c>
       <c r="AP62">
         <f>SUM(AK57:AK63)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ62">
         <f>AP62*15</f>
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="AS62" t="s">
         <v>2</v>
       </c>
       <c r="AW62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX62">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>3</v>
       </c>
       <c r="AZ62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="BC62" t="s">
@@ -34678,11 +33237,11 @@
       </c>
       <c r="BD62">
         <f>SUM(AY57:AY63)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BE62">
         <f>BD62*15</f>
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="BG62" t="s">
         <v>2</v>
@@ -34694,26 +33253,29 @@
         <v>2</v>
       </c>
       <c r="BL62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BN62">
-        <f t="shared" si="19"/>
-        <v>7</v>
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="BQ62" t="s">
         <v>13</v>
       </c>
       <c r="BR62">
         <f>SUM(BM57:BM63)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BS62">
         <f>BR62*15</f>
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="BU62" t="s">
         <v>2</v>
       </c>
+      <c r="BY62">
+        <v>4</v>
+      </c>
       <c r="BZ62">
         <v>2</v>
       </c>
@@ -34721,76 +33283,38 @@
         <v>4</v>
       </c>
       <c r="CB62">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f t="shared" si="21"/>
+        <v>10</v>
       </c>
       <c r="CE62" t="s">
         <v>13</v>
       </c>
       <c r="CF62">
         <f>SUM(CA57:CA63)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="CG62">
         <f>CF62*15</f>
-        <v>120</v>
-      </c>
-      <c r="CI62" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ62">
-        <v>2</v>
-      </c>
-      <c r="CM62">
-        <v>2</v>
-      </c>
-      <c r="CN62">
-        <v>4</v>
-      </c>
-      <c r="CP62">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="CS62" t="s">
-        <v>13</v>
-      </c>
-      <c r="CT62">
-        <f>SUM(CO57:CO63)</f>
-        <v>12</v>
-      </c>
-      <c r="CU62">
-        <f>CT62*15</f>
-        <v>180</v>
-      </c>
-      <c r="CW62" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY62">
-        <v>2</v>
-      </c>
-      <c r="DB62">
-        <v>2</v>
-      </c>
-      <c r="DC62">
-        <v>5</v>
-      </c>
-      <c r="DD62">
-        <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-      <c r="DG62" t="s">
-        <v>13</v>
-      </c>
-      <c r="DH62">
-        <f>SUM(DC57:DC63)</f>
-        <v>31</v>
-      </c>
-      <c r="DI62">
-        <f>DH62*15</f>
-        <v>465</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="CR62" s="7"/>
+      <c r="CS62" s="7"/>
+      <c r="CT62" s="7"/>
+      <c r="CU62" s="7"/>
+      <c r="CV62" s="7"/>
+      <c r="CW62" s="7"/>
+      <c r="CX62" s="7"/>
+      <c r="CY62" s="7"/>
+      <c r="CZ62" s="7"/>
+      <c r="DA62" s="7"/>
+      <c r="DB62" s="7"/>
+      <c r="DC62" s="7"/>
+      <c r="DD62" s="7"/>
+      <c r="DE62" s="7"/>
+      <c r="DF62" s="7"/>
+      <c r="DG62" s="7"/>
     </row>
-    <row r="63" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -34813,7 +33337,7 @@
         <v>10</v>
       </c>
       <c r="H63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -34831,28 +33355,31 @@
         <v>17</v>
       </c>
       <c r="R63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U63">
         <v>3</v>
       </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
       <c r="W63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X63">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f t="shared" si="17"/>
+        <v>9</v>
       </c>
       <c r="AA63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AB63">
         <f>SUM(AB57:AB62)</f>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AC63">
         <f>SUM(AC57:AC62)</f>
-        <v>1305</v>
+        <v>1151</v>
       </c>
       <c r="AE63" t="s">
         <v>17</v>
@@ -34864,22 +33391,25 @@
         <v>1</v>
       </c>
       <c r="AJ63">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="AK63">
+        <v>3</v>
       </c>
       <c r="AL63">
-        <f t="shared" si="17"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>11</v>
       </c>
       <c r="AO63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AP63">
         <f>SUM(AP57:AP62)</f>
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="AQ63">
         <f>SUM(AQ57:AQ62)</f>
-        <v>1824</v>
+        <v>1356</v>
       </c>
       <c r="AS63" t="s">
         <v>17</v>
@@ -34891,7 +33421,7 @@
         <v>9</v>
       </c>
       <c r="AZ63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="BC63" s="1" t="s">
@@ -34899,15 +33429,18 @@
       </c>
       <c r="BD63">
         <f>SUM(BD57:BD62)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BE63">
         <f>SUM(BE57:BE62)</f>
-        <v>1196</v>
+        <v>1235</v>
       </c>
       <c r="BG63" t="s">
         <v>17</v>
       </c>
+      <c r="BH63">
+        <v>1</v>
+      </c>
       <c r="BK63">
         <v>2</v>
       </c>
@@ -34918,19 +33451,19 @@
         <v>4</v>
       </c>
       <c r="BN63">
-        <f t="shared" si="19"/>
-        <v>8</v>
+        <f t="shared" si="20"/>
+        <v>9</v>
       </c>
       <c r="BQ63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="BR63">
         <f>SUM(BR57:BR62)</f>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="BS63">
         <f>SUM(BS57:BS62)</f>
-        <v>987</v>
+        <v>1167</v>
       </c>
       <c r="BU63" t="s">
         <v>17</v>
@@ -34941,74 +33474,42 @@
       <c r="BY63">
         <v>4</v>
       </c>
+      <c r="BZ63">
+        <v>4</v>
+      </c>
       <c r="CB63">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f t="shared" si="21"/>
+        <v>11</v>
       </c>
       <c r="CE63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="CF63">
         <f>SUM(CF57:CF62)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="CG63">
         <f>SUM(CG57:CG62)</f>
-        <v>898</v>
-      </c>
-      <c r="CI63" t="s">
-        <v>17</v>
-      </c>
-      <c r="CJ63">
-        <v>1</v>
-      </c>
-      <c r="CK63">
-        <v>1</v>
-      </c>
-      <c r="CN63">
-        <v>5</v>
-      </c>
-      <c r="CP63">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="CS63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT63">
-        <f>SUM(CT57:CT62)</f>
-        <v>55</v>
-      </c>
-      <c r="CU63">
-        <f>SUM(CU57:CU62)</f>
-        <v>920</v>
-      </c>
-      <c r="CW63" t="s">
-        <v>17</v>
-      </c>
-      <c r="CX63">
-        <v>3</v>
-      </c>
-      <c r="DC63">
-        <v>3</v>
-      </c>
-      <c r="DD63">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="DG63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="DH63">
-        <f>SUM(DH57:DH62)</f>
-        <v>50</v>
-      </c>
-      <c r="DI63">
-        <f>SUM(DI57:DI62)</f>
-        <v>805</v>
-      </c>
+        <v>1301</v>
+      </c>
+      <c r="CR63" s="7"/>
+      <c r="CS63" s="7"/>
+      <c r="CT63" s="7"/>
+      <c r="CU63" s="7"/>
+      <c r="CV63" s="7"/>
+      <c r="CW63" s="7"/>
+      <c r="CX63" s="7"/>
+      <c r="CY63" s="7"/>
+      <c r="CZ63" s="7"/>
+      <c r="DA63" s="7"/>
+      <c r="DB63" s="7"/>
+      <c r="DC63" s="7"/>
+      <c r="DD63" s="7"/>
+      <c r="DE63" s="7"/>
+      <c r="DF63" s="7"/>
+      <c r="DG63" s="7"/>
     </row>
-    <row r="64" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -35017,31 +33518,101 @@
         <v>20</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64" si="23">SUM(C57:C63)</f>
+        <f t="shared" ref="C64" si="22">SUM(C57:C63)</f>
         <v>27</v>
       </c>
       <c r="D64">
-        <f t="shared" ref="D64" si="24">SUM(D57:D63)</f>
+        <f t="shared" ref="D64" si="23">SUM(D57:D63)</f>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64" si="25">SUM(E57:E63)</f>
+        <f t="shared" ref="E64" si="24">SUM(E57:E63)</f>
         <v>75</v>
       </c>
       <c r="F64">
-        <f t="shared" ref="F64" si="26">SUM(F57:F63)</f>
+        <f t="shared" ref="F64" si="25">SUM(F57:F63)</f>
         <v>147</v>
       </c>
       <c r="G64">
-        <f t="shared" ref="G64" si="27">SUM(G57:G63)</f>
+        <f t="shared" ref="G64" si="26">SUM(G57:G63)</f>
         <v>81</v>
       </c>
       <c r="H64">
-        <f t="shared" ref="H64" si="28">SUM(H57:H63)</f>
+        <f t="shared" ref="H64" si="27">SUM(H57:H63)</f>
         <v>350</v>
       </c>
+      <c r="CR64" s="7"/>
+      <c r="CS64" s="7"/>
+      <c r="CT64" s="7"/>
+      <c r="CU64" s="7"/>
+      <c r="CV64" s="7"/>
+      <c r="CW64" s="7"/>
+      <c r="CX64" s="7"/>
+      <c r="CY64" s="7"/>
+      <c r="CZ64" s="7"/>
+      <c r="DA64" s="7"/>
+      <c r="DB64" s="7"/>
+      <c r="DC64" s="7"/>
+      <c r="DD64" s="7"/>
+      <c r="DE64" s="7"/>
+      <c r="DF64" s="7"/>
+      <c r="DG64" s="7"/>
     </row>
-    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="CR65" s="7"/>
+      <c r="CS65" s="7"/>
+      <c r="CT65" s="7"/>
+      <c r="CU65" s="7"/>
+      <c r="CV65" s="7"/>
+      <c r="CW65" s="7"/>
+      <c r="CX65" s="7"/>
+      <c r="CY65" s="7"/>
+      <c r="CZ65" s="7"/>
+      <c r="DA65" s="7"/>
+      <c r="DB65" s="7"/>
+      <c r="DC65" s="7"/>
+      <c r="DD65" s="7"/>
+      <c r="DE65" s="7"/>
+      <c r="DF65" s="7"/>
+      <c r="DG65" s="7"/>
+    </row>
+    <row r="66" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="CR66" s="7"/>
+      <c r="CS66" s="7"/>
+      <c r="CT66" s="7"/>
+      <c r="CU66" s="7"/>
+      <c r="CV66" s="7"/>
+      <c r="CW66" s="7"/>
+      <c r="CX66" s="7"/>
+      <c r="CY66" s="7"/>
+      <c r="CZ66" s="7"/>
+      <c r="DA66" s="7"/>
+      <c r="DB66" s="7"/>
+      <c r="DC66" s="7"/>
+      <c r="DD66" s="7"/>
+      <c r="DE66" s="7"/>
+      <c r="DF66" s="7"/>
+      <c r="DG66" s="7"/>
+    </row>
+    <row r="67" spans="2:111" x14ac:dyDescent="0.25">
+      <c r="CR67" s="7"/>
+      <c r="CS67" s="7"/>
+      <c r="CT67" s="7"/>
+      <c r="CU67" s="7"/>
+      <c r="CV67" s="7"/>
+      <c r="CW67" s="7"/>
+      <c r="CX67" s="7"/>
+      <c r="CY67" s="7"/>
+      <c r="CZ67" s="7"/>
+      <c r="DA67" s="7"/>
+      <c r="DB67" s="7"/>
+      <c r="DC67" s="7"/>
+      <c r="DD67" s="7"/>
+      <c r="DE67" s="7"/>
+      <c r="DF67" s="7"/>
+      <c r="DG67" s="7"/>
+    </row>
+    <row r="80" spans="2:111" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>14</v>
       </c>
@@ -35051,8 +33622,8 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="R80" s="6" t="s">
-        <v>33</v>
+      <c r="R80" s="6">
+        <v>8</v>
       </c>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
@@ -35060,8 +33631,8 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
-      <c r="AF80" s="6" t="s">
-        <v>34</v>
+      <c r="AF80" s="6">
+        <v>9</v>
       </c>
       <c r="AG80" s="6"/>
       <c r="AH80" s="6"/>
@@ -35069,8 +33640,17 @@
       <c r="AJ80" s="6"/>
       <c r="AK80" s="6"/>
       <c r="AL80" s="6"/>
+      <c r="AT80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU80" s="6"/>
+      <c r="AV80" s="6"/>
+      <c r="AW80" s="6"/>
+      <c r="AX80" s="6"/>
+      <c r="AY80" s="6"/>
+      <c r="AZ80" s="6"/>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>8</v>
       </c>
@@ -35152,8 +33732,35 @@
       <c r="AQ81" t="s">
         <v>19</v>
       </c>
+      <c r="AT81" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU81" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ81" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD81" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE81" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -35176,7 +33783,7 @@
         <v>11</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82:H88" si="29">SUM(B82:G82)</f>
+        <f t="shared" ref="H82:H88" si="28">SUM(B82:G82)</f>
         <v>20</v>
       </c>
       <c r="K82" t="s">
@@ -35208,22 +33815,22 @@
         <v>0</v>
       </c>
       <c r="W82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X82">
-        <f t="shared" ref="X82:X88" si="30">SUM(R82:W82)</f>
-        <v>8</v>
+        <f t="shared" ref="X82:X88" si="29">SUM(R82:W82)</f>
+        <v>7</v>
       </c>
       <c r="AA82" t="s">
         <v>8</v>
       </c>
       <c r="AB82">
         <f>SUM(R82:R88)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AC82">
         <f>AB82*30</f>
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="AE82" t="s">
         <v>0</v>
@@ -35235,25 +33842,46 @@
         <v>4</v>
       </c>
       <c r="AK82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL82">
-        <f t="shared" ref="AL82:AL88" si="31">SUM(AF82:AK82)</f>
-        <v>12</v>
+        <f t="shared" ref="AL82:AL88" si="30">SUM(AF82:AK82)</f>
+        <v>7</v>
       </c>
       <c r="AO82" t="s">
         <v>8</v>
       </c>
       <c r="AP82">
         <f>SUM(AF82:AF88)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ82">
         <f>AP82*30</f>
-        <v>270</v>
+        <v>240</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>6</v>
+      </c>
+      <c r="AZ82">
+        <f t="shared" ref="AZ82:AZ88" si="31">SUM(AT82:AY82)</f>
+        <v>6</v>
+      </c>
+      <c r="BC82" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD82">
+        <f>SUM(AT82:AT88)</f>
+        <v>7</v>
+      </c>
+      <c r="BE82">
+        <f>BD82*30</f>
+        <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -35276,7 +33904,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="K83" t="s">
@@ -35293,10 +33921,10 @@
         <v>1</v>
       </c>
       <c r="R83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>0</v>
@@ -35308,19 +33936,19 @@
         <v>0</v>
       </c>
       <c r="X83">
-        <f t="shared" si="30"/>
-        <v>10</v>
+        <f t="shared" si="29"/>
+        <v>6</v>
       </c>
       <c r="AA83" t="s">
         <v>9</v>
       </c>
       <c r="AB83">
         <f>SUM(S82:S88)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AC83">
         <f>AB83*20</f>
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AE83" t="s">
         <v>1</v>
@@ -35332,25 +33960,52 @@
         <v>3</v>
       </c>
       <c r="AJ83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL83">
-        <f t="shared" si="31"/>
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
       <c r="AO83" t="s">
         <v>9</v>
       </c>
       <c r="AP83">
         <f>SUM(AG82:AG88)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AQ83">
         <f>AP83*20</f>
-        <v>220</v>
+        <v>140</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT83">
+        <v>2</v>
+      </c>
+      <c r="AU83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>2</v>
+      </c>
+      <c r="AZ83">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="BC83" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD83">
+        <f>SUM(AU82:AU88)</f>
+        <v>6</v>
+      </c>
+      <c r="BE83">
+        <f>BD83*20</f>
+        <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -35373,7 +34028,7 @@
         <v>6</v>
       </c>
       <c r="H84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="K84" t="s">
@@ -35390,7 +34045,7 @@
         <v>4</v>
       </c>
       <c r="R84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -35405,8 +34060,8 @@
         <v>2</v>
       </c>
       <c r="X84">
-        <f t="shared" si="30"/>
-        <v>8</v>
+        <f t="shared" si="29"/>
+        <v>6</v>
       </c>
       <c r="AA84" t="s">
         <v>10</v>
@@ -35423,17 +34078,14 @@
         <v>4</v>
       </c>
       <c r="AF84">
-        <v>4</v>
-      </c>
-      <c r="AG84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL84">
-        <f t="shared" si="31"/>
-        <v>12</v>
+        <f t="shared" si="30"/>
+        <v>6</v>
       </c>
       <c r="AO84" t="s">
         <v>10</v>
@@ -35446,8 +34098,35 @@
         <f>AP84*25</f>
         <v>0</v>
       </c>
+      <c r="AS84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT84">
+        <v>3</v>
+      </c>
+      <c r="AU84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>1</v>
+      </c>
+      <c r="AZ84">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="BC84" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD84">
+        <f>SUM(AV82:AV88)</f>
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <f>BD84*25</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -35470,7 +34149,7 @@
         <v>5</v>
       </c>
       <c r="H85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="K85" t="s">
@@ -35499,11 +34178,11 @@
         <v>5</v>
       </c>
       <c r="V85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X85">
-        <f t="shared" si="30"/>
-        <v>10</v>
+        <f t="shared" si="29"/>
+        <v>6</v>
       </c>
       <c r="AA85" t="s">
         <v>11</v>
@@ -35526,11 +34205,11 @@
         <v>2</v>
       </c>
       <c r="AK85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL85">
-        <f t="shared" si="31"/>
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
       <c r="AO85" t="s">
         <v>11</v>
@@ -35543,8 +34222,32 @@
         <f>AP85*22</f>
         <v>66</v>
       </c>
+      <c r="AS85" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>2</v>
+      </c>
+      <c r="AZ85">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD85">
+        <f>SUM(AW82:AW88)</f>
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <f>BD85*22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -35567,7 +34270,7 @@
         <v>11</v>
       </c>
       <c r="H86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="K86" t="s">
@@ -35599,49 +34302,73 @@
         <v>4</v>
       </c>
       <c r="W86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X86">
-        <f t="shared" si="30"/>
-        <v>9</v>
+        <f t="shared" si="29"/>
+        <v>6</v>
       </c>
       <c r="AA86" t="s">
         <v>12</v>
       </c>
       <c r="AB86">
         <f>SUM(V82:V88)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC86">
         <f>AB86*15</f>
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="AE86" t="s">
         <v>3</v>
       </c>
       <c r="AJ86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL86">
-        <f t="shared" si="31"/>
-        <v>11</v>
+        <f t="shared" si="30"/>
+        <v>7</v>
       </c>
       <c r="AO86" t="s">
         <v>12</v>
       </c>
       <c r="AP86">
         <f>SUM(AJ82:AJ88)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AQ86">
         <f>AP86*15</f>
-        <v>255</v>
+        <v>195</v>
+      </c>
+      <c r="AS86" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX86">
+        <v>2</v>
+      </c>
+      <c r="AY86">
+        <v>5</v>
+      </c>
+      <c r="AZ86">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="BC86" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD86">
+        <f>SUM(AX82:AX88)</f>
+        <v>10</v>
+      </c>
+      <c r="BE86">
+        <f>BD86*15</f>
+        <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -35664,7 +34391,7 @@
         <v>12</v>
       </c>
       <c r="H87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="K87" t="s">
@@ -35681,7 +34408,7 @@
         <v>2</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -35696,22 +34423,22 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X87">
-        <f t="shared" si="30"/>
-        <v>10</v>
+        <f t="shared" si="29"/>
+        <v>7</v>
       </c>
       <c r="AA87" t="s">
         <v>13</v>
       </c>
       <c r="AB87">
         <f>SUM(W82:W88)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AC87">
         <f>AB87*15</f>
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="AE87" t="s">
         <v>2</v>
@@ -35720,25 +34447,49 @@
         <v>2</v>
       </c>
       <c r="AK87">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AL87">
-        <f t="shared" si="31"/>
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>7</v>
       </c>
       <c r="AO87" t="s">
         <v>13</v>
       </c>
       <c r="AP87">
         <f>SUM(AK82:AK88)</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AQ87">
         <f>AP87*15</f>
-        <v>525</v>
+        <v>300</v>
+      </c>
+      <c r="AS87" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>4</v>
+      </c>
+      <c r="AZ87">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="BC87" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD87">
+        <f>SUM(AY82:AY88)</f>
+        <v>22</v>
+      </c>
+      <c r="BE87">
+        <f>BD87*15</f>
+        <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -35761,7 +34512,7 @@
         <v>10</v>
       </c>
       <c r="H88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -35791,25 +34542,25 @@
         <v>0</v>
       </c>
       <c r="V88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X88">
-        <f t="shared" si="30"/>
-        <v>10</v>
+        <f t="shared" si="29"/>
+        <v>6</v>
       </c>
       <c r="AA88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AB88">
         <f>SUM(AB82:AB87)</f>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AC88">
         <f>SUM(AC82:AC87)</f>
-        <v>1269</v>
+        <v>854</v>
       </c>
       <c r="AE88" t="s">
         <v>17</v>
@@ -35821,25 +34572,49 @@
         <v>2</v>
       </c>
       <c r="AK88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL88">
-        <f t="shared" si="31"/>
-        <v>10</v>
+        <f t="shared" si="30"/>
+        <v>8</v>
       </c>
       <c r="AO88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AP88">
         <f>SUM(AP82:AP87)</f>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AQ88">
         <f>SUM(AQ82:AQ87)</f>
-        <v>1336</v>
+        <v>941</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>4</v>
+      </c>
+      <c r="AZ88">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="BC88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD88">
+        <f>SUM(BD82:BD87)</f>
+        <v>45</v>
+      </c>
+      <c r="BE88">
+        <f>SUM(BE82:BE87)</f>
+        <v>810</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -35876,11 +34651,11 @@
       </c>
       <c r="R89">
         <f>SUM(R82:R88)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S89">
         <f t="shared" ref="S89:X89" si="38">SUM(S82:S88)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T89">
         <f t="shared" si="38"/>
@@ -35892,26 +34667,26 @@
       </c>
       <c r="V89">
         <f t="shared" si="38"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W89">
         <f t="shared" si="38"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="X89">
         <f t="shared" si="38"/>
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AF89">
         <f>SUM(AF82:AF88)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG89">
         <f t="shared" ref="AG89:AL89" si="39">SUM(AG82:AG88)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH89">
         <f t="shared" si="39"/>
@@ -35923,18 +34698,49 @@
       </c>
       <c r="AJ89">
         <f t="shared" si="39"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK89">
         <f t="shared" si="39"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AL89">
         <f t="shared" si="39"/>
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="AS89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT89">
+        <f>SUM(AT82:AT88)</f>
+        <v>7</v>
+      </c>
+      <c r="AU89">
+        <f t="shared" ref="AU89:AZ89" si="40">SUM(AU82:AU88)</f>
+        <v>6</v>
+      </c>
+      <c r="AV89">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AX89">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="AY89">
+        <f t="shared" si="40"/>
+        <v>22</v>
+      </c>
+      <c r="AZ89">
+        <f t="shared" si="40"/>
+        <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.25">
       <c r="Q91" s="5"/>
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
@@ -35944,7 +34750,7 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.25">
       <c r="Q92" s="5"/>
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
@@ -35954,7 +34760,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.25">
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
@@ -35964,7 +34770,7 @@
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.25">
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
@@ -35974,7 +34780,7 @@
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.25">
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
@@ -35984,7 +34790,7 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.25">
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
@@ -36083,27 +34889,27 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <f t="shared" ref="C109:H109" si="40">SUM(C3,C30,C57,C82)</f>
+        <f t="shared" ref="C109:H109" si="41">SUM(C3,C30,C57,C82)</f>
         <v>19</v>
       </c>
       <c r="D109">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>19</v>
       </c>
       <c r="E109">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
       <c r="F109">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>28</v>
       </c>
       <c r="G109">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>32</v>
       </c>
       <c r="H109">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>132</v>
       </c>
       <c r="K109" t="s">
@@ -36123,38 +34929,38 @@
         <v>1</v>
       </c>
       <c r="B110">
-        <f t="shared" ref="B110:H116" si="41">SUM(B4,B31,B58,B83)</f>
+        <f t="shared" ref="B110:H116" si="42">SUM(B4,B31,B58,B83)</f>
         <v>12</v>
       </c>
       <c r="C110">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="D110">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7</v>
       </c>
       <c r="E110">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23</v>
       </c>
       <c r="F110">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>30</v>
       </c>
       <c r="G110">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>38</v>
       </c>
       <c r="H110">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>132</v>
       </c>
       <c r="K110" t="s">
         <v>9</v>
       </c>
       <c r="L110">
-        <f t="shared" ref="L110:L115" si="42">SUM(L4,L31,L58,L83)</f>
+        <f t="shared" ref="L110:L115" si="43">SUM(L4,L31,L58,L83)</f>
         <v>122</v>
       </c>
       <c r="M110">
@@ -36167,38 +34973,38 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="C111">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16</v>
       </c>
       <c r="D111">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15</v>
       </c>
       <c r="E111">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>23</v>
       </c>
       <c r="F111">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>27</v>
       </c>
       <c r="G111">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>37</v>
       </c>
       <c r="H111">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>132</v>
       </c>
       <c r="K111" t="s">
         <v>10</v>
       </c>
       <c r="L111">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>121</v>
       </c>
       <c r="M111">
@@ -36211,38 +35017,38 @@
         <v>5</v>
       </c>
       <c r="B112">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6</v>
       </c>
       <c r="C112">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13</v>
       </c>
       <c r="D112">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="E112">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="F112">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>36</v>
       </c>
       <c r="G112">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>33</v>
       </c>
       <c r="H112">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>132</v>
       </c>
       <c r="K112" t="s">
         <v>11</v>
       </c>
       <c r="L112">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>150</v>
       </c>
       <c r="M112">
@@ -36255,38 +35061,38 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="C113">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15</v>
       </c>
       <c r="D113">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18</v>
       </c>
       <c r="E113">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="F113">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>34</v>
       </c>
       <c r="G113">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>32</v>
       </c>
       <c r="H113">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>132</v>
       </c>
       <c r="K113" t="s">
         <v>12</v>
       </c>
       <c r="L113">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>211</v>
       </c>
       <c r="M113">
@@ -36299,38 +35105,38 @@
         <v>2</v>
       </c>
       <c r="B114">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="C114">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17</v>
       </c>
       <c r="D114">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="E114">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>21</v>
       </c>
       <c r="F114">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>27</v>
       </c>
       <c r="G114">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>37</v>
       </c>
       <c r="H114">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>132</v>
       </c>
       <c r="K114" t="s">
         <v>13</v>
       </c>
       <c r="L114">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>243</v>
       </c>
       <c r="M114">
@@ -36343,38 +35149,38 @@
         <v>17</v>
       </c>
       <c r="B115">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="C115">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>20</v>
       </c>
       <c r="D115">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>18</v>
       </c>
       <c r="E115">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19</v>
       </c>
       <c r="F115">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>29</v>
       </c>
       <c r="G115">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>34</v>
       </c>
       <c r="H115">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>132</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L115">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>924</v>
       </c>
       <c r="M115">
@@ -36387,31 +35193,31 @@
         <v>7</v>
       </c>
       <c r="B116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>77</v>
       </c>
       <c r="C116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>122</v>
       </c>
       <c r="D116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>121</v>
       </c>
       <c r="E116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>150</v>
       </c>
       <c r="F116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>211</v>
       </c>
       <c r="G116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>243</v>
       </c>
       <c r="H116">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>924</v>
       </c>
     </row>
@@ -36470,27 +35276,27 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <f t="shared" ref="C137:H137" si="43">SUM(C82,C57,C30)</f>
+        <f t="shared" ref="C137:H137" si="44">SUM(C82,C57,C30)</f>
         <v>19</v>
       </c>
       <c r="D137">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
       <c r="E137">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>20</v>
       </c>
       <c r="F137">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>28</v>
       </c>
       <c r="G137">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>28</v>
       </c>
       <c r="H137">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>102</v>
       </c>
       <c r="K137" t="s">
@@ -36510,38 +35316,38 @@
         <v>1</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:H144" si="44">SUM(B83,B58,B31)</f>
+        <f t="shared" ref="B138:H144" si="45">SUM(B83,B58,B31)</f>
         <v>12</v>
       </c>
       <c r="C138">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="D138">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="E138">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23</v>
       </c>
       <c r="F138">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>30</v>
       </c>
       <c r="G138">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>24</v>
       </c>
       <c r="H138">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>102</v>
       </c>
       <c r="K138" t="s">
         <v>9</v>
       </c>
       <c r="L138">
-        <f t="shared" ref="L138:L143" si="45">SUM(L83,L58,L31)</f>
+        <f t="shared" ref="L138:L143" si="46">SUM(L83,L58,L31)</f>
         <v>77</v>
       </c>
       <c r="M138">
@@ -36554,38 +35360,38 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14</v>
       </c>
       <c r="C139">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
       <c r="D139">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
       <c r="E139">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23</v>
       </c>
       <c r="F139">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>27</v>
       </c>
       <c r="G139">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23</v>
       </c>
       <c r="H139">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>102</v>
       </c>
       <c r="K139" t="s">
         <v>10</v>
       </c>
       <c r="L139">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>43</v>
       </c>
       <c r="M139">
@@ -36598,38 +35404,38 @@
         <v>5</v>
       </c>
       <c r="B140">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="C140">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
       <c r="D140">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="E140">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="F140">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>36</v>
       </c>
       <c r="G140">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>27</v>
       </c>
       <c r="H140">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>102</v>
       </c>
       <c r="K140" t="s">
         <v>11</v>
       </c>
       <c r="L140">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>150</v>
       </c>
       <c r="M140">
@@ -36642,38 +35448,38 @@
         <v>3</v>
       </c>
       <c r="B141">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="C141">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>15</v>
       </c>
       <c r="D141">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
       <c r="E141">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>22</v>
       </c>
       <c r="F141">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>34</v>
       </c>
       <c r="G141">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>26</v>
       </c>
       <c r="H141">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>102</v>
       </c>
       <c r="K141" t="s">
         <v>12</v>
       </c>
       <c r="L141">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>211</v>
       </c>
       <c r="M141">
@@ -36686,38 +35492,38 @@
         <v>2</v>
       </c>
       <c r="B142">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="C142">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>17</v>
       </c>
       <c r="D142">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>21</v>
       </c>
       <c r="F142">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>27</v>
       </c>
       <c r="G142">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>29</v>
       </c>
       <c r="H142">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>102</v>
       </c>
       <c r="K142" t="s">
         <v>13</v>
       </c>
       <c r="L142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>181</v>
       </c>
       <c r="M142">
@@ -36730,38 +35536,38 @@
         <v>17</v>
       </c>
       <c r="B143">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
       <c r="C143">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="D143">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="E143">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>19</v>
       </c>
       <c r="F143">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>29</v>
       </c>
       <c r="G143">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>24</v>
       </c>
       <c r="H143">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>102</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L143">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>714</v>
       </c>
       <c r="M143">
@@ -36774,31 +35580,31 @@
         <v>7</v>
       </c>
       <c r="B144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>52</v>
       </c>
       <c r="C144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>77</v>
       </c>
       <c r="D144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>43</v>
       </c>
       <c r="E144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>150</v>
       </c>
       <c r="F144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>211</v>
       </c>
       <c r="G144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>181</v>
       </c>
       <c r="H144">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>714</v>
       </c>
     </row>
@@ -36807,6 +35613,7 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AT80:AZ80"/>
     <mergeCell ref="R28:X28"/>
     <mergeCell ref="AA28:AG28"/>
     <mergeCell ref="AJ28:AP28"/>
@@ -36823,8 +35630,7 @@
     <mergeCell ref="AT55:AZ55"/>
     <mergeCell ref="BH55:BN55"/>
     <mergeCell ref="BV55:CB55"/>
-    <mergeCell ref="CJ55:CP55"/>
-    <mergeCell ref="CX55:DD55"/>
+    <mergeCell ref="AU40:BA40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
